--- a/COURSE-2-Introduction-to-Spreadsheets-and-Models/Notes & Slides/C2 Excel Files/Module-2-examples.xlsx
+++ b/COURSE-2-Introduction-to-Spreadsheets-and-Models/Notes & Slides/C2 Excel Files/Module-2-examples.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huesman.000\Google Drive\Personal\Personal from Dropbox Innovation\Presentations\Spreadsheets and Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keenechung/Documents/GitHub/finance-and-quantitative-modeling/COURSE-2-Introduction-to-Spreadsheets-and-Models/Notes &amp; Slides/C2 Excel Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF907B8-6D71-9C49-AA1F-BA8024E0E6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22845" windowHeight="12090"/>
+    <workbookView xWindow="-21900" yWindow="-31500" windowWidth="38400" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cashflow with Sales" sheetId="4" r:id="rId1"/>
@@ -18,18 +19,31 @@
   <definedNames>
     <definedName name="Expenses">'Cashflow with Sales'!$O$66</definedName>
     <definedName name="StartDate">#REF!</definedName>
+    <definedName name="TotalCashPaidOut">'Cashflow with Sales'!$O$66</definedName>
+    <definedName name="TotalCashReceipts">'Cashflow with Sales'!$O$31</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="76">
   <si>
     <t>Starting date</t>
   </si>
@@ -254,17 +268,20 @@
   </si>
   <si>
     <t>Sales growth rate prior year</t>
+  </si>
+  <si>
+    <t>(replicate margin with defined names)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.14996795556505021"/>
@@ -361,6 +378,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1" tint="0.14996795556505021"/>
+      <name val="Garamond"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1" tint="0.14996795556505021"/>
       <name val="Garamond"/>
       <family val="2"/>
@@ -692,11 +716,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -732,13 +757,12 @@
     <xf numFmtId="3" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -751,12 +775,14 @@
     <xf numFmtId="3" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleLight10" defaultPivotStyle="PivotStyleLight16"/>
@@ -772,7 +798,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -855,6 +881,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3326-DB45-8E90-D1F5269F11A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -920,6 +951,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3326-DB45-8E90-D1F5269F11A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1049,7 +1085,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1689,7 +1724,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1881,22 +1922,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.19921875" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="38" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -1915,7 +1956,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>48</v>
       </c>
@@ -1934,7 +1975,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1942,7 +1983,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="10"/>
       <c r="C5" s="6">
@@ -1994,13 +2035,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="13">
         <f>MIN(C22:N22)</f>
-        <v>-270.36</v>
+        <v>-490.24000000000012</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2014,16 +2055,21 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="14">
         <f>(O31-O66)/O31</f>
-        <v>0.15610774992797466</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+        <v>7.3793060871712585E-2</v>
+      </c>
+      <c r="C7" s="51">
+        <f>(TotalCashReceipts-TotalCashPaidOut)/TotalCashReceipts</f>
+        <v>7.3793060871712585E-2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -2035,13 +2081,13 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="13">
         <f>N67</f>
-        <v>2870.7599999999993</v>
+        <v>1270.7599999999995</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2056,7 +2102,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="6"/>
@@ -2072,7 +2118,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -2088,7 +2134,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>47</v>
       </c>
@@ -2108,7 +2154,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>66</v>
       </c>
@@ -2128,7 +2174,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>67</v>
       </c>
@@ -2148,63 +2194,63 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="18">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C14" s="27">
         <f>$B$14</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D14" s="27">
         <f t="shared" ref="D14:J14" si="1">$B$14</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F14" s="27">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G14" s="27">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H14" s="27">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I14" s="27">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J14" s="27">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K14" s="27">
         <f>$B$14*2</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L14" s="27">
         <f t="shared" ref="L14:N14" si="2">$B$14*2</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M14" s="27">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N14" s="27">
         <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2219,7 +2265,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>69</v>
       </c>
@@ -2262,7 +2308,7 @@
       </c>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
@@ -2304,7 +2350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
@@ -2359,7 +2405,7 @@
       </c>
       <c r="O18" s="26"/>
     </row>
-    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>68</v>
       </c>
@@ -2406,7 +2452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -2419,51 +2465,51 @@
       </c>
       <c r="D21" s="29">
         <f t="shared" ref="D21:N21" si="4">C67</f>
-        <v>-126.20000000000005</v>
+        <v>-226.20000000000005</v>
       </c>
       <c r="E21" s="29">
         <f t="shared" si="4"/>
-        <v>-270.36</v>
+        <v>-470.36</v>
       </c>
       <c r="F21" s="29">
         <f t="shared" si="4"/>
-        <v>-190.24000000000012</v>
+        <v>-490.24000000000012</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="4"/>
-        <v>39.400000000000091</v>
+        <v>-360.6</v>
       </c>
       <c r="H21" s="29">
         <f t="shared" si="4"/>
-        <v>418.56000000000017</v>
+        <v>-81.440000000000055</v>
       </c>
       <c r="I21" s="29">
         <f t="shared" si="4"/>
-        <v>722.96000000000026</v>
+        <v>122.96000000000004</v>
       </c>
       <c r="J21" s="29">
         <f t="shared" si="4"/>
-        <v>1251.6400000000003</v>
+        <v>551.6400000000001</v>
       </c>
       <c r="K21" s="29">
         <f t="shared" si="4"/>
-        <v>1705.5600000000004</v>
+        <v>905.56</v>
       </c>
       <c r="L21" s="29">
         <f t="shared" si="4"/>
-        <v>1660.44</v>
+        <v>660.44</v>
       </c>
       <c r="M21" s="29">
         <f t="shared" si="4"/>
-        <v>1764.8400000000001</v>
+        <v>564.84000000000015</v>
       </c>
       <c r="N21" s="29">
         <f t="shared" si="4"/>
-        <v>2168.2799999999997</v>
+        <v>768.28</v>
       </c>
       <c r="O21" s="30"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
@@ -2473,51 +2519,51 @@
       </c>
       <c r="C22" s="29">
         <f t="shared" si="5"/>
-        <v>-126.20000000000005</v>
+        <v>-226.20000000000005</v>
       </c>
       <c r="D22" s="29">
         <f t="shared" si="5"/>
-        <v>-270.36</v>
+        <v>-470.36</v>
       </c>
       <c r="E22" s="29">
         <f t="shared" si="5"/>
-        <v>-190.24000000000012</v>
+        <v>-490.24000000000012</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" si="5"/>
-        <v>39.400000000000091</v>
+        <v>-360.6</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" si="5"/>
-        <v>418.56000000000017</v>
+        <v>-81.440000000000055</v>
       </c>
       <c r="H22" s="29">
         <f t="shared" si="5"/>
-        <v>722.96000000000026</v>
+        <v>122.96000000000004</v>
       </c>
       <c r="I22" s="29">
         <f t="shared" si="5"/>
-        <v>1251.6400000000003</v>
+        <v>551.6400000000001</v>
       </c>
       <c r="J22" s="29">
         <f t="shared" si="5"/>
-        <v>1705.5600000000004</v>
+        <v>905.56</v>
       </c>
       <c r="K22" s="29">
         <f t="shared" si="5"/>
-        <v>1660.44</v>
+        <v>660.44</v>
       </c>
       <c r="L22" s="29">
         <f t="shared" si="5"/>
-        <v>1764.8400000000001</v>
+        <v>564.84000000000015</v>
       </c>
       <c r="M22" s="29">
         <f t="shared" si="5"/>
-        <v>2168.2799999999997</v>
+        <v>768.28</v>
       </c>
       <c r="N22" s="29">
         <f t="shared" si="5"/>
-        <v>2870.7599999999993</v>
+        <v>1270.7599999999995</v>
       </c>
       <c r="O22" s="31"/>
     </row>
@@ -2556,118 +2602,118 @@
       <c r="N24" s="36"/>
       <c r="O24" s="37"/>
     </row>
-    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="38"/>
-      <c r="C25" s="39">
+      <c r="C25" s="34">
         <f t="shared" ref="C25:N25" si="6">C18*$B$13</f>
         <v>1068</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="34">
         <f t="shared" si="6"/>
         <v>961.19999999999993</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="34">
         <f t="shared" si="6"/>
         <v>1281.5999999999999</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="34">
         <f t="shared" si="6"/>
         <v>1495.2</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="34">
         <f t="shared" si="6"/>
         <v>1708.8</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="34">
         <f t="shared" si="6"/>
         <v>1602</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="34">
         <f t="shared" si="6"/>
         <v>1922.3999999999999</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="34">
         <f t="shared" si="6"/>
         <v>1815.6</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="34">
         <f t="shared" si="6"/>
         <v>1388.3999999999999</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="34">
         <f t="shared" si="6"/>
         <v>1602</v>
       </c>
-      <c r="M25" s="39">
+      <c r="M25" s="34">
         <f t="shared" si="6"/>
         <v>2029.2</v>
       </c>
-      <c r="N25" s="39">
+      <c r="N25" s="34">
         <f t="shared" si="6"/>
         <v>2456.3999999999996</v>
       </c>
-      <c r="O25" s="40">
+      <c r="O25" s="39">
         <f>SUM(B25:N25)</f>
         <v>19330.800000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="39">
+      <c r="B26" s="40"/>
+      <c r="C26" s="34">
         <f>C25*B11</f>
         <v>106.80000000000001</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="34">
         <f t="shared" ref="D26:N26" si="7">D25*$F$5</f>
         <v>0</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H26" s="39">
+      <c r="H26" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I26" s="39">
+      <c r="I26" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K26" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L26" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M26" s="39">
+      <c r="M26" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N26" s="39">
+      <c r="N26" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O26" s="40">
+      <c r="O26" s="39">
         <f t="shared" ref="O26:O30" si="8">SUM(B26:N26)</f>
         <v>106.80000000000001</v>
       </c>
@@ -2676,20 +2722,20 @@
       <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="40">
+      <c r="B27" s="40"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2698,20 +2744,20 @@
       <c r="A28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="40">
+      <c r="B28" s="40"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2720,20 +2766,20 @@
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="40">
+      <c r="B29" s="40"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2742,141 +2788,141 @@
       <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="40">
+      <c r="B30" s="40"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43">
+      <c r="B31" s="41"/>
+      <c r="C31" s="42">
         <f t="shared" ref="C31:N31" si="9">SUM(C25,C27:C30,(C26*-1))</f>
         <v>961.2</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="42">
         <f t="shared" si="9"/>
         <v>961.19999999999993</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="42">
         <f t="shared" si="9"/>
         <v>1281.5999999999999</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="42">
         <f t="shared" si="9"/>
         <v>1495.2</v>
       </c>
-      <c r="G31" s="43">
+      <c r="G31" s="42">
         <f t="shared" si="9"/>
         <v>1708.8</v>
       </c>
-      <c r="H31" s="43">
+      <c r="H31" s="42">
         <f t="shared" si="9"/>
         <v>1602</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="42">
         <f t="shared" si="9"/>
         <v>1922.3999999999999</v>
       </c>
-      <c r="J31" s="43">
+      <c r="J31" s="42">
         <f t="shared" si="9"/>
         <v>1815.6</v>
       </c>
-      <c r="K31" s="43">
+      <c r="K31" s="42">
         <f t="shared" si="9"/>
         <v>1388.3999999999999</v>
       </c>
-      <c r="L31" s="43">
+      <c r="L31" s="42">
         <f t="shared" si="9"/>
         <v>1602</v>
       </c>
-      <c r="M31" s="43">
+      <c r="M31" s="42">
         <f t="shared" si="9"/>
         <v>2029.2</v>
       </c>
-      <c r="N31" s="43">
+      <c r="N31" s="42">
         <f t="shared" si="9"/>
         <v>2456.3999999999996</v>
       </c>
-      <c r="O31" s="44">
+      <c r="O31" s="43">
         <f>SUM(O25:O30)</f>
         <v>19437.600000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="44">
         <f t="shared" ref="B32:N32" si="10">(B21+B31)</f>
         <v>50</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="44">
         <f t="shared" si="10"/>
         <v>1011.2</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="44">
         <f t="shared" si="10"/>
-        <v>834.99999999999989</v>
-      </c>
-      <c r="E32" s="45">
+        <v>734.99999999999989</v>
+      </c>
+      <c r="E32" s="44">
         <f t="shared" si="10"/>
-        <v>1011.2399999999999</v>
-      </c>
-      <c r="F32" s="45">
+        <v>811.2399999999999</v>
+      </c>
+      <c r="F32" s="44">
         <f t="shared" si="10"/>
-        <v>1304.96</v>
-      </c>
-      <c r="G32" s="45">
+        <v>1004.9599999999999</v>
+      </c>
+      <c r="G32" s="44">
         <f t="shared" si="10"/>
-        <v>1748.2</v>
-      </c>
-      <c r="H32" s="45">
+        <v>1348.1999999999998</v>
+      </c>
+      <c r="H32" s="44">
         <f t="shared" si="10"/>
-        <v>2020.5600000000002</v>
-      </c>
-      <c r="I32" s="45">
+        <v>1520.56</v>
+      </c>
+      <c r="I32" s="44">
         <f t="shared" si="10"/>
-        <v>2645.36</v>
-      </c>
-      <c r="J32" s="45">
+        <v>2045.36</v>
+      </c>
+      <c r="J32" s="44">
         <f t="shared" si="10"/>
-        <v>3067.2400000000002</v>
-      </c>
-      <c r="K32" s="45">
+        <v>2367.2399999999998</v>
+      </c>
+      <c r="K32" s="44">
         <f t="shared" si="10"/>
-        <v>3093.96</v>
-      </c>
-      <c r="L32" s="45">
+        <v>2293.96</v>
+      </c>
+      <c r="L32" s="44">
         <f t="shared" si="10"/>
-        <v>3262.44</v>
-      </c>
-      <c r="M32" s="45">
+        <v>2262.44</v>
+      </c>
+      <c r="M32" s="44">
         <f t="shared" si="10"/>
-        <v>3794.04</v>
-      </c>
-      <c r="N32" s="45">
+        <v>2594.04</v>
+      </c>
+      <c r="N32" s="44">
         <f t="shared" si="10"/>
-        <v>4624.6799999999994</v>
-      </c>
-      <c r="O32" s="46"/>
-    </row>
-    <row r="33" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3224.6799999999994</v>
+      </c>
+      <c r="O32" s="45"/>
+    </row>
+    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -2912,395 +2958,395 @@
       <c r="N34" s="36"/>
       <c r="O34" s="37"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="38"/>
-      <c r="C35" s="39">
+      <c r="C35" s="34">
         <f t="shared" ref="C35:N35" si="11">C14</f>
-        <v>200</v>
-      </c>
-      <c r="D35" s="39">
+        <v>300</v>
+      </c>
+      <c r="D35" s="34">
         <f t="shared" si="11"/>
-        <v>200</v>
-      </c>
-      <c r="E35" s="39">
+        <v>300</v>
+      </c>
+      <c r="E35" s="34">
         <f t="shared" si="11"/>
-        <v>200</v>
-      </c>
-      <c r="F35" s="39">
+        <v>300</v>
+      </c>
+      <c r="F35" s="34">
         <f t="shared" si="11"/>
-        <v>200</v>
-      </c>
-      <c r="G35" s="39">
+        <v>300</v>
+      </c>
+      <c r="G35" s="34">
         <f t="shared" si="11"/>
-        <v>200</v>
-      </c>
-      <c r="H35" s="39">
+        <v>300</v>
+      </c>
+      <c r="H35" s="34">
         <f t="shared" si="11"/>
-        <v>200</v>
-      </c>
-      <c r="I35" s="39">
+        <v>300</v>
+      </c>
+      <c r="I35" s="34">
         <f t="shared" si="11"/>
-        <v>200</v>
-      </c>
-      <c r="J35" s="39">
+        <v>300</v>
+      </c>
+      <c r="J35" s="34">
         <f t="shared" si="11"/>
-        <v>200</v>
-      </c>
-      <c r="K35" s="39">
+        <v>300</v>
+      </c>
+      <c r="K35" s="34">
         <f t="shared" si="11"/>
-        <v>400</v>
-      </c>
-      <c r="L35" s="39">
+        <v>600</v>
+      </c>
+      <c r="L35" s="34">
         <f t="shared" si="11"/>
-        <v>400</v>
-      </c>
-      <c r="M35" s="39">
+        <v>600</v>
+      </c>
+      <c r="M35" s="34">
         <f t="shared" si="11"/>
-        <v>400</v>
-      </c>
-      <c r="N35" s="39">
+        <v>600</v>
+      </c>
+      <c r="N35" s="34">
         <f t="shared" si="11"/>
-        <v>400</v>
-      </c>
-      <c r="O35" s="40">
+        <v>600</v>
+      </c>
+      <c r="O35" s="39">
         <f t="shared" ref="O35:O66" si="12">SUM(C35:N35)</f>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="39">
-        <v>1</v>
-      </c>
-      <c r="D36" s="39">
-        <v>1</v>
-      </c>
-      <c r="E36" s="39">
-        <v>1</v>
-      </c>
-      <c r="F36" s="39">
-        <v>1</v>
-      </c>
-      <c r="G36" s="39">
-        <v>1</v>
-      </c>
-      <c r="H36" s="39">
-        <v>1</v>
-      </c>
-      <c r="I36" s="39">
-        <v>1</v>
-      </c>
-      <c r="J36" s="39">
-        <v>1</v>
-      </c>
-      <c r="K36" s="39">
-        <v>1</v>
-      </c>
-      <c r="L36" s="39">
-        <v>1</v>
-      </c>
-      <c r="M36" s="39">
-        <v>1</v>
-      </c>
-      <c r="N36" s="39">
-        <v>1</v>
-      </c>
-      <c r="O36" s="40">
+      <c r="B36" s="40"/>
+      <c r="C36" s="34">
+        <v>1</v>
+      </c>
+      <c r="D36" s="34">
+        <v>1</v>
+      </c>
+      <c r="E36" s="34">
+        <v>1</v>
+      </c>
+      <c r="F36" s="34">
+        <v>1</v>
+      </c>
+      <c r="G36" s="34">
+        <v>1</v>
+      </c>
+      <c r="H36" s="34">
+        <v>1</v>
+      </c>
+      <c r="I36" s="34">
+        <v>1</v>
+      </c>
+      <c r="J36" s="34">
+        <v>1</v>
+      </c>
+      <c r="K36" s="34">
+        <v>1</v>
+      </c>
+      <c r="L36" s="34">
+        <v>1</v>
+      </c>
+      <c r="M36" s="34">
+        <v>1</v>
+      </c>
+      <c r="N36" s="34">
+        <v>1</v>
+      </c>
+      <c r="O36" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="39">
+      <c r="B37" s="40"/>
+      <c r="C37" s="34">
         <v>600</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="34">
         <v>600</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="34">
         <v>600</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="34">
         <v>600</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="34">
         <v>600</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="34">
         <v>600</v>
       </c>
-      <c r="I37" s="39">
+      <c r="I37" s="34">
         <v>600</v>
       </c>
-      <c r="J37" s="39">
+      <c r="J37" s="34">
         <v>600</v>
       </c>
-      <c r="K37" s="39">
+      <c r="K37" s="34">
         <v>600</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="34">
         <v>600</v>
       </c>
-      <c r="M37" s="39">
+      <c r="M37" s="34">
         <v>600</v>
       </c>
-      <c r="N37" s="39">
+      <c r="N37" s="34">
         <v>600</v>
       </c>
-      <c r="O37" s="40">
+      <c r="O37" s="39">
         <f t="shared" si="12"/>
         <v>7200</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="39">
-        <v>1</v>
-      </c>
-      <c r="D38" s="39">
-        <v>1</v>
-      </c>
-      <c r="E38" s="39">
-        <v>1</v>
-      </c>
-      <c r="F38" s="39">
-        <v>1</v>
-      </c>
-      <c r="G38" s="39">
-        <v>1</v>
-      </c>
-      <c r="H38" s="39">
-        <v>1</v>
-      </c>
-      <c r="I38" s="39">
-        <v>1</v>
-      </c>
-      <c r="J38" s="39">
-        <v>1</v>
-      </c>
-      <c r="K38" s="39">
-        <v>1</v>
-      </c>
-      <c r="L38" s="39">
-        <v>1</v>
-      </c>
-      <c r="M38" s="39">
-        <v>1</v>
-      </c>
-      <c r="N38" s="39">
-        <v>1</v>
-      </c>
-      <c r="O38" s="40">
+      <c r="B38" s="40"/>
+      <c r="C38" s="34">
+        <v>1</v>
+      </c>
+      <c r="D38" s="34">
+        <v>1</v>
+      </c>
+      <c r="E38" s="34">
+        <v>1</v>
+      </c>
+      <c r="F38" s="34">
+        <v>1</v>
+      </c>
+      <c r="G38" s="34">
+        <v>1</v>
+      </c>
+      <c r="H38" s="34">
+        <v>1</v>
+      </c>
+      <c r="I38" s="34">
+        <v>1</v>
+      </c>
+      <c r="J38" s="34">
+        <v>1</v>
+      </c>
+      <c r="K38" s="34">
+        <v>1</v>
+      </c>
+      <c r="L38" s="34">
+        <v>1</v>
+      </c>
+      <c r="M38" s="34">
+        <v>1</v>
+      </c>
+      <c r="N38" s="34">
+        <v>1</v>
+      </c>
+      <c r="O38" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="39">
-        <v>1</v>
-      </c>
-      <c r="D39" s="39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="39">
-        <v>1</v>
-      </c>
-      <c r="F39" s="39">
-        <v>1</v>
-      </c>
-      <c r="G39" s="39">
-        <v>1</v>
-      </c>
-      <c r="H39" s="39">
-        <v>1</v>
-      </c>
-      <c r="I39" s="39">
-        <v>1</v>
-      </c>
-      <c r="J39" s="39">
-        <v>1</v>
-      </c>
-      <c r="K39" s="39">
-        <v>1</v>
-      </c>
-      <c r="L39" s="39">
-        <v>1</v>
-      </c>
-      <c r="M39" s="39">
-        <v>1</v>
-      </c>
-      <c r="N39" s="39">
-        <v>1</v>
-      </c>
-      <c r="O39" s="40">
+      <c r="B39" s="40"/>
+      <c r="C39" s="34">
+        <v>1</v>
+      </c>
+      <c r="D39" s="34">
+        <v>1</v>
+      </c>
+      <c r="E39" s="34">
+        <v>1</v>
+      </c>
+      <c r="F39" s="34">
+        <v>1</v>
+      </c>
+      <c r="G39" s="34">
+        <v>1</v>
+      </c>
+      <c r="H39" s="34">
+        <v>1</v>
+      </c>
+      <c r="I39" s="34">
+        <v>1</v>
+      </c>
+      <c r="J39" s="34">
+        <v>1</v>
+      </c>
+      <c r="K39" s="34">
+        <v>1</v>
+      </c>
+      <c r="L39" s="34">
+        <v>1</v>
+      </c>
+      <c r="M39" s="34">
+        <v>1</v>
+      </c>
+      <c r="N39" s="34">
+        <v>1</v>
+      </c>
+      <c r="O39" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="39">
-        <v>1</v>
-      </c>
-      <c r="D40" s="39">
-        <v>1</v>
-      </c>
-      <c r="E40" s="39">
-        <v>1</v>
-      </c>
-      <c r="F40" s="39">
-        <v>1</v>
-      </c>
-      <c r="G40" s="39">
-        <v>1</v>
-      </c>
-      <c r="H40" s="39">
-        <v>1</v>
-      </c>
-      <c r="I40" s="39">
-        <v>1</v>
-      </c>
-      <c r="J40" s="39">
-        <v>1</v>
-      </c>
-      <c r="K40" s="39">
-        <v>1</v>
-      </c>
-      <c r="L40" s="39">
-        <v>1</v>
-      </c>
-      <c r="M40" s="39">
-        <v>1</v>
-      </c>
-      <c r="N40" s="39">
-        <v>1</v>
-      </c>
-      <c r="O40" s="40">
+      <c r="B40" s="40"/>
+      <c r="C40" s="34">
+        <v>1</v>
+      </c>
+      <c r="D40" s="34">
+        <v>1</v>
+      </c>
+      <c r="E40" s="34">
+        <v>1</v>
+      </c>
+      <c r="F40" s="34">
+        <v>1</v>
+      </c>
+      <c r="G40" s="34">
+        <v>1</v>
+      </c>
+      <c r="H40" s="34">
+        <v>1</v>
+      </c>
+      <c r="I40" s="34">
+        <v>1</v>
+      </c>
+      <c r="J40" s="34">
+        <v>1</v>
+      </c>
+      <c r="K40" s="34">
+        <v>1</v>
+      </c>
+      <c r="L40" s="34">
+        <v>1</v>
+      </c>
+      <c r="M40" s="34">
+        <v>1</v>
+      </c>
+      <c r="N40" s="34">
+        <v>1</v>
+      </c>
+      <c r="O40" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="39">
+      <c r="B41" s="40"/>
+      <c r="C41" s="34">
         <f>C25*0.3</f>
         <v>320.39999999999998</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="34">
         <f t="shared" ref="D41:N41" si="13">D25*0.3</f>
         <v>288.35999999999996</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E41" s="34">
         <f t="shared" si="13"/>
         <v>384.47999999999996</v>
       </c>
-      <c r="F41" s="39">
+      <c r="F41" s="34">
         <f t="shared" si="13"/>
         <v>448.56</v>
       </c>
-      <c r="G41" s="39">
+      <c r="G41" s="34">
         <f t="shared" si="13"/>
         <v>512.64</v>
       </c>
-      <c r="H41" s="39">
+      <c r="H41" s="34">
         <f t="shared" si="13"/>
         <v>480.59999999999997</v>
       </c>
-      <c r="I41" s="39">
+      <c r="I41" s="34">
         <f t="shared" si="13"/>
         <v>576.71999999999991</v>
       </c>
-      <c r="J41" s="39">
+      <c r="J41" s="34">
         <f t="shared" si="13"/>
         <v>544.67999999999995</v>
       </c>
-      <c r="K41" s="39">
+      <c r="K41" s="34">
         <f t="shared" si="13"/>
         <v>416.51999999999992</v>
       </c>
-      <c r="L41" s="39">
+      <c r="L41" s="34">
         <f t="shared" si="13"/>
         <v>480.59999999999997</v>
       </c>
-      <c r="M41" s="39">
+      <c r="M41" s="34">
         <f t="shared" si="13"/>
         <v>608.76</v>
       </c>
-      <c r="N41" s="39">
+      <c r="N41" s="34">
         <f t="shared" si="13"/>
         <v>736.91999999999985</v>
       </c>
-      <c r="O41" s="40">
+      <c r="O41" s="39">
         <f t="shared" si="12"/>
         <v>5799.24</v>
       </c>
-      <c r="W41" s="51"/>
+      <c r="W41" s="50"/>
     </row>
     <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="39">
-        <v>1</v>
-      </c>
-      <c r="D42" s="39">
-        <v>1</v>
-      </c>
-      <c r="E42" s="39">
-        <v>1</v>
-      </c>
-      <c r="F42" s="39">
-        <v>1</v>
-      </c>
-      <c r="G42" s="39">
-        <v>1</v>
-      </c>
-      <c r="H42" s="39">
-        <v>1</v>
-      </c>
-      <c r="I42" s="39">
-        <v>1</v>
-      </c>
-      <c r="J42" s="39">
-        <v>1</v>
-      </c>
-      <c r="K42" s="39">
-        <v>1</v>
-      </c>
-      <c r="L42" s="39">
-        <v>1</v>
-      </c>
-      <c r="M42" s="39">
-        <v>1</v>
-      </c>
-      <c r="N42" s="39">
-        <v>1</v>
-      </c>
-      <c r="O42" s="40">
+      <c r="B42" s="40"/>
+      <c r="C42" s="34">
+        <v>1</v>
+      </c>
+      <c r="D42" s="34">
+        <v>1</v>
+      </c>
+      <c r="E42" s="34">
+        <v>1</v>
+      </c>
+      <c r="F42" s="34">
+        <v>1</v>
+      </c>
+      <c r="G42" s="34">
+        <v>1</v>
+      </c>
+      <c r="H42" s="34">
+        <v>1</v>
+      </c>
+      <c r="I42" s="34">
+        <v>1</v>
+      </c>
+      <c r="J42" s="34">
+        <v>1</v>
+      </c>
+      <c r="K42" s="34">
+        <v>1</v>
+      </c>
+      <c r="L42" s="34">
+        <v>1</v>
+      </c>
+      <c r="M42" s="34">
+        <v>1</v>
+      </c>
+      <c r="N42" s="34">
+        <v>1</v>
+      </c>
+      <c r="O42" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -3309,44 +3355,44 @@
       <c r="A43" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="39">
-        <v>1</v>
-      </c>
-      <c r="D43" s="39">
-        <v>1</v>
-      </c>
-      <c r="E43" s="39">
-        <v>1</v>
-      </c>
-      <c r="F43" s="39">
-        <v>1</v>
-      </c>
-      <c r="G43" s="39">
-        <v>1</v>
-      </c>
-      <c r="H43" s="39">
-        <v>1</v>
-      </c>
-      <c r="I43" s="39">
-        <v>1</v>
-      </c>
-      <c r="J43" s="39">
-        <v>1</v>
-      </c>
-      <c r="K43" s="39">
-        <v>1</v>
-      </c>
-      <c r="L43" s="39">
-        <v>1</v>
-      </c>
-      <c r="M43" s="39">
-        <v>1</v>
-      </c>
-      <c r="N43" s="39">
-        <v>1</v>
-      </c>
-      <c r="O43" s="40">
+      <c r="B43" s="40"/>
+      <c r="C43" s="34">
+        <v>1</v>
+      </c>
+      <c r="D43" s="34">
+        <v>1</v>
+      </c>
+      <c r="E43" s="34">
+        <v>1</v>
+      </c>
+      <c r="F43" s="34">
+        <v>1</v>
+      </c>
+      <c r="G43" s="34">
+        <v>1</v>
+      </c>
+      <c r="H43" s="34">
+        <v>1</v>
+      </c>
+      <c r="I43" s="34">
+        <v>1</v>
+      </c>
+      <c r="J43" s="34">
+        <v>1</v>
+      </c>
+      <c r="K43" s="34">
+        <v>1</v>
+      </c>
+      <c r="L43" s="34">
+        <v>1</v>
+      </c>
+      <c r="M43" s="34">
+        <v>1</v>
+      </c>
+      <c r="N43" s="34">
+        <v>1</v>
+      </c>
+      <c r="O43" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -3355,44 +3401,44 @@
       <c r="A44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="39">
-        <v>1</v>
-      </c>
-      <c r="D44" s="39">
-        <v>1</v>
-      </c>
-      <c r="E44" s="39">
-        <v>1</v>
-      </c>
-      <c r="F44" s="39">
-        <v>1</v>
-      </c>
-      <c r="G44" s="39">
-        <v>1</v>
-      </c>
-      <c r="H44" s="39">
-        <v>1</v>
-      </c>
-      <c r="I44" s="39">
-        <v>1</v>
-      </c>
-      <c r="J44" s="39">
-        <v>1</v>
-      </c>
-      <c r="K44" s="39">
-        <v>1</v>
-      </c>
-      <c r="L44" s="39">
-        <v>1</v>
-      </c>
-      <c r="M44" s="39">
-        <v>1</v>
-      </c>
-      <c r="N44" s="39">
-        <v>1</v>
-      </c>
-      <c r="O44" s="40">
+      <c r="B44" s="40"/>
+      <c r="C44" s="34">
+        <v>1</v>
+      </c>
+      <c r="D44" s="34">
+        <v>1</v>
+      </c>
+      <c r="E44" s="34">
+        <v>1</v>
+      </c>
+      <c r="F44" s="34">
+        <v>1</v>
+      </c>
+      <c r="G44" s="34">
+        <v>1</v>
+      </c>
+      <c r="H44" s="34">
+        <v>1</v>
+      </c>
+      <c r="I44" s="34">
+        <v>1</v>
+      </c>
+      <c r="J44" s="34">
+        <v>1</v>
+      </c>
+      <c r="K44" s="34">
+        <v>1</v>
+      </c>
+      <c r="L44" s="34">
+        <v>1</v>
+      </c>
+      <c r="M44" s="34">
+        <v>1</v>
+      </c>
+      <c r="N44" s="34">
+        <v>1</v>
+      </c>
+      <c r="O44" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -3401,44 +3447,44 @@
       <c r="A45" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="39">
-        <v>1</v>
-      </c>
-      <c r="D45" s="39">
-        <v>1</v>
-      </c>
-      <c r="E45" s="39">
-        <v>1</v>
-      </c>
-      <c r="F45" s="39">
-        <v>1</v>
-      </c>
-      <c r="G45" s="39">
-        <v>1</v>
-      </c>
-      <c r="H45" s="39">
-        <v>1</v>
-      </c>
-      <c r="I45" s="39">
-        <v>1</v>
-      </c>
-      <c r="J45" s="39">
-        <v>1</v>
-      </c>
-      <c r="K45" s="39">
-        <v>1</v>
-      </c>
-      <c r="L45" s="39">
-        <v>1</v>
-      </c>
-      <c r="M45" s="39">
-        <v>1</v>
-      </c>
-      <c r="N45" s="39">
-        <v>1</v>
-      </c>
-      <c r="O45" s="40">
+      <c r="B45" s="40"/>
+      <c r="C45" s="34">
+        <v>1</v>
+      </c>
+      <c r="D45" s="34">
+        <v>1</v>
+      </c>
+      <c r="E45" s="34">
+        <v>1</v>
+      </c>
+      <c r="F45" s="34">
+        <v>1</v>
+      </c>
+      <c r="G45" s="34">
+        <v>1</v>
+      </c>
+      <c r="H45" s="34">
+        <v>1</v>
+      </c>
+      <c r="I45" s="34">
+        <v>1</v>
+      </c>
+      <c r="J45" s="34">
+        <v>1</v>
+      </c>
+      <c r="K45" s="34">
+        <v>1</v>
+      </c>
+      <c r="L45" s="34">
+        <v>1</v>
+      </c>
+      <c r="M45" s="34">
+        <v>1</v>
+      </c>
+      <c r="N45" s="34">
+        <v>1</v>
+      </c>
+      <c r="O45" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -3447,44 +3493,44 @@
       <c r="A46" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="39">
-        <v>1</v>
-      </c>
-      <c r="D46" s="39">
-        <v>1</v>
-      </c>
-      <c r="E46" s="39">
-        <v>1</v>
-      </c>
-      <c r="F46" s="39">
-        <v>1</v>
-      </c>
-      <c r="G46" s="39">
-        <v>1</v>
-      </c>
-      <c r="H46" s="39">
-        <v>1</v>
-      </c>
-      <c r="I46" s="39">
-        <v>1</v>
-      </c>
-      <c r="J46" s="39">
-        <v>1</v>
-      </c>
-      <c r="K46" s="39">
-        <v>1</v>
-      </c>
-      <c r="L46" s="39">
-        <v>1</v>
-      </c>
-      <c r="M46" s="39">
-        <v>1</v>
-      </c>
-      <c r="N46" s="39">
-        <v>1</v>
-      </c>
-      <c r="O46" s="40">
+      <c r="B46" s="40"/>
+      <c r="C46" s="34">
+        <v>1</v>
+      </c>
+      <c r="D46" s="34">
+        <v>1</v>
+      </c>
+      <c r="E46" s="34">
+        <v>1</v>
+      </c>
+      <c r="F46" s="34">
+        <v>1</v>
+      </c>
+      <c r="G46" s="34">
+        <v>1</v>
+      </c>
+      <c r="H46" s="34">
+        <v>1</v>
+      </c>
+      <c r="I46" s="34">
+        <v>1</v>
+      </c>
+      <c r="J46" s="34">
+        <v>1</v>
+      </c>
+      <c r="K46" s="34">
+        <v>1</v>
+      </c>
+      <c r="L46" s="34">
+        <v>1</v>
+      </c>
+      <c r="M46" s="34">
+        <v>1</v>
+      </c>
+      <c r="N46" s="34">
+        <v>1</v>
+      </c>
+      <c r="O46" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -3493,44 +3539,44 @@
       <c r="A47" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="39">
-        <v>1</v>
-      </c>
-      <c r="D47" s="39">
-        <v>1</v>
-      </c>
-      <c r="E47" s="39">
-        <v>1</v>
-      </c>
-      <c r="F47" s="39">
-        <v>1</v>
-      </c>
-      <c r="G47" s="39">
-        <v>1</v>
-      </c>
-      <c r="H47" s="39">
-        <v>1</v>
-      </c>
-      <c r="I47" s="39">
-        <v>1</v>
-      </c>
-      <c r="J47" s="39">
-        <v>1</v>
-      </c>
-      <c r="K47" s="39">
-        <v>1</v>
-      </c>
-      <c r="L47" s="39">
-        <v>1</v>
-      </c>
-      <c r="M47" s="39">
-        <v>1</v>
-      </c>
-      <c r="N47" s="39">
-        <v>1</v>
-      </c>
-      <c r="O47" s="40">
+      <c r="B47" s="40"/>
+      <c r="C47" s="34">
+        <v>1</v>
+      </c>
+      <c r="D47" s="34">
+        <v>1</v>
+      </c>
+      <c r="E47" s="34">
+        <v>1</v>
+      </c>
+      <c r="F47" s="34">
+        <v>1</v>
+      </c>
+      <c r="G47" s="34">
+        <v>1</v>
+      </c>
+      <c r="H47" s="34">
+        <v>1</v>
+      </c>
+      <c r="I47" s="34">
+        <v>1</v>
+      </c>
+      <c r="J47" s="34">
+        <v>1</v>
+      </c>
+      <c r="K47" s="34">
+        <v>1</v>
+      </c>
+      <c r="L47" s="34">
+        <v>1</v>
+      </c>
+      <c r="M47" s="34">
+        <v>1</v>
+      </c>
+      <c r="N47" s="34">
+        <v>1</v>
+      </c>
+      <c r="O47" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -3539,44 +3585,44 @@
       <c r="A48" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="39">
-        <v>1</v>
-      </c>
-      <c r="D48" s="39">
-        <v>1</v>
-      </c>
-      <c r="E48" s="39">
-        <v>1</v>
-      </c>
-      <c r="F48" s="39">
-        <v>1</v>
-      </c>
-      <c r="G48" s="39">
-        <v>1</v>
-      </c>
-      <c r="H48" s="39">
-        <v>1</v>
-      </c>
-      <c r="I48" s="39">
-        <v>1</v>
-      </c>
-      <c r="J48" s="39">
-        <v>1</v>
-      </c>
-      <c r="K48" s="39">
-        <v>1</v>
-      </c>
-      <c r="L48" s="39">
-        <v>1</v>
-      </c>
-      <c r="M48" s="39">
-        <v>1</v>
-      </c>
-      <c r="N48" s="39">
-        <v>1</v>
-      </c>
-      <c r="O48" s="40">
+      <c r="B48" s="40"/>
+      <c r="C48" s="34">
+        <v>1</v>
+      </c>
+      <c r="D48" s="34">
+        <v>1</v>
+      </c>
+      <c r="E48" s="34">
+        <v>1</v>
+      </c>
+      <c r="F48" s="34">
+        <v>1</v>
+      </c>
+      <c r="G48" s="34">
+        <v>1</v>
+      </c>
+      <c r="H48" s="34">
+        <v>1</v>
+      </c>
+      <c r="I48" s="34">
+        <v>1</v>
+      </c>
+      <c r="J48" s="34">
+        <v>1</v>
+      </c>
+      <c r="K48" s="34">
+        <v>1</v>
+      </c>
+      <c r="L48" s="34">
+        <v>1</v>
+      </c>
+      <c r="M48" s="34">
+        <v>1</v>
+      </c>
+      <c r="N48" s="34">
+        <v>1</v>
+      </c>
+      <c r="O48" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -3585,44 +3631,44 @@
       <c r="A49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="39">
-        <v>1</v>
-      </c>
-      <c r="D49" s="39">
-        <v>1</v>
-      </c>
-      <c r="E49" s="39">
-        <v>1</v>
-      </c>
-      <c r="F49" s="39">
-        <v>1</v>
-      </c>
-      <c r="G49" s="39">
-        <v>1</v>
-      </c>
-      <c r="H49" s="39">
-        <v>1</v>
-      </c>
-      <c r="I49" s="39">
-        <v>1</v>
-      </c>
-      <c r="J49" s="39">
-        <v>1</v>
-      </c>
-      <c r="K49" s="39">
-        <v>1</v>
-      </c>
-      <c r="L49" s="39">
-        <v>1</v>
-      </c>
-      <c r="M49" s="39">
-        <v>1</v>
-      </c>
-      <c r="N49" s="39">
-        <v>1</v>
-      </c>
-      <c r="O49" s="40">
+      <c r="B49" s="40"/>
+      <c r="C49" s="34">
+        <v>1</v>
+      </c>
+      <c r="D49" s="34">
+        <v>1</v>
+      </c>
+      <c r="E49" s="34">
+        <v>1</v>
+      </c>
+      <c r="F49" s="34">
+        <v>1</v>
+      </c>
+      <c r="G49" s="34">
+        <v>1</v>
+      </c>
+      <c r="H49" s="34">
+        <v>1</v>
+      </c>
+      <c r="I49" s="34">
+        <v>1</v>
+      </c>
+      <c r="J49" s="34">
+        <v>1</v>
+      </c>
+      <c r="K49" s="34">
+        <v>1</v>
+      </c>
+      <c r="L49" s="34">
+        <v>1</v>
+      </c>
+      <c r="M49" s="34">
+        <v>1</v>
+      </c>
+      <c r="N49" s="34">
+        <v>1</v>
+      </c>
+      <c r="O49" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -3631,44 +3677,44 @@
       <c r="A50" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="39">
-        <v>1</v>
-      </c>
-      <c r="D50" s="39">
-        <v>1</v>
-      </c>
-      <c r="E50" s="39">
-        <v>1</v>
-      </c>
-      <c r="F50" s="39">
-        <v>1</v>
-      </c>
-      <c r="G50" s="39">
-        <v>1</v>
-      </c>
-      <c r="H50" s="39">
-        <v>1</v>
-      </c>
-      <c r="I50" s="39">
-        <v>1</v>
-      </c>
-      <c r="J50" s="39">
-        <v>1</v>
-      </c>
-      <c r="K50" s="39">
-        <v>1</v>
-      </c>
-      <c r="L50" s="39">
-        <v>1</v>
-      </c>
-      <c r="M50" s="39">
-        <v>1</v>
-      </c>
-      <c r="N50" s="39">
-        <v>1</v>
-      </c>
-      <c r="O50" s="40">
+      <c r="B50" s="40"/>
+      <c r="C50" s="34">
+        <v>1</v>
+      </c>
+      <c r="D50" s="34">
+        <v>1</v>
+      </c>
+      <c r="E50" s="34">
+        <v>1</v>
+      </c>
+      <c r="F50" s="34">
+        <v>1</v>
+      </c>
+      <c r="G50" s="34">
+        <v>1</v>
+      </c>
+      <c r="H50" s="34">
+        <v>1</v>
+      </c>
+      <c r="I50" s="34">
+        <v>1</v>
+      </c>
+      <c r="J50" s="34">
+        <v>1</v>
+      </c>
+      <c r="K50" s="34">
+        <v>1</v>
+      </c>
+      <c r="L50" s="34">
+        <v>1</v>
+      </c>
+      <c r="M50" s="34">
+        <v>1</v>
+      </c>
+      <c r="N50" s="34">
+        <v>1</v>
+      </c>
+      <c r="O50" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -3677,44 +3723,44 @@
       <c r="A51" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="39">
-        <v>1</v>
-      </c>
-      <c r="D51" s="39">
-        <v>1</v>
-      </c>
-      <c r="E51" s="39">
-        <v>1</v>
-      </c>
-      <c r="F51" s="39">
-        <v>1</v>
-      </c>
-      <c r="G51" s="39">
-        <v>1</v>
-      </c>
-      <c r="H51" s="39">
-        <v>1</v>
-      </c>
-      <c r="I51" s="39">
-        <v>1</v>
-      </c>
-      <c r="J51" s="39">
-        <v>1</v>
-      </c>
-      <c r="K51" s="39">
-        <v>1</v>
-      </c>
-      <c r="L51" s="39">
-        <v>1</v>
-      </c>
-      <c r="M51" s="39">
-        <v>1</v>
-      </c>
-      <c r="N51" s="39">
-        <v>1</v>
-      </c>
-      <c r="O51" s="40">
+      <c r="B51" s="40"/>
+      <c r="C51" s="34">
+        <v>1</v>
+      </c>
+      <c r="D51" s="34">
+        <v>1</v>
+      </c>
+      <c r="E51" s="34">
+        <v>1</v>
+      </c>
+      <c r="F51" s="34">
+        <v>1</v>
+      </c>
+      <c r="G51" s="34">
+        <v>1</v>
+      </c>
+      <c r="H51" s="34">
+        <v>1</v>
+      </c>
+      <c r="I51" s="34">
+        <v>1</v>
+      </c>
+      <c r="J51" s="34">
+        <v>1</v>
+      </c>
+      <c r="K51" s="34">
+        <v>1</v>
+      </c>
+      <c r="L51" s="34">
+        <v>1</v>
+      </c>
+      <c r="M51" s="34">
+        <v>1</v>
+      </c>
+      <c r="N51" s="34">
+        <v>1</v>
+      </c>
+      <c r="O51" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -3723,44 +3769,44 @@
       <c r="A52" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="39">
-        <v>1</v>
-      </c>
-      <c r="D52" s="39">
-        <v>1</v>
-      </c>
-      <c r="E52" s="39">
-        <v>1</v>
-      </c>
-      <c r="F52" s="39">
-        <v>1</v>
-      </c>
-      <c r="G52" s="39">
-        <v>1</v>
-      </c>
-      <c r="H52" s="39">
-        <v>1</v>
-      </c>
-      <c r="I52" s="39">
-        <v>1</v>
-      </c>
-      <c r="J52" s="39">
-        <v>1</v>
-      </c>
-      <c r="K52" s="39">
-        <v>1</v>
-      </c>
-      <c r="L52" s="39">
-        <v>1</v>
-      </c>
-      <c r="M52" s="39">
-        <v>1</v>
-      </c>
-      <c r="N52" s="39">
-        <v>1</v>
-      </c>
-      <c r="O52" s="40">
+      <c r="B52" s="40"/>
+      <c r="C52" s="34">
+        <v>1</v>
+      </c>
+      <c r="D52" s="34">
+        <v>1</v>
+      </c>
+      <c r="E52" s="34">
+        <v>1</v>
+      </c>
+      <c r="F52" s="34">
+        <v>1</v>
+      </c>
+      <c r="G52" s="34">
+        <v>1</v>
+      </c>
+      <c r="H52" s="34">
+        <v>1</v>
+      </c>
+      <c r="I52" s="34">
+        <v>1</v>
+      </c>
+      <c r="J52" s="34">
+        <v>1</v>
+      </c>
+      <c r="K52" s="34">
+        <v>1</v>
+      </c>
+      <c r="L52" s="34">
+        <v>1</v>
+      </c>
+      <c r="M52" s="34">
+        <v>1</v>
+      </c>
+      <c r="N52" s="34">
+        <v>1</v>
+      </c>
+      <c r="O52" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -3769,44 +3815,44 @@
       <c r="A53" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="39">
-        <v>1</v>
-      </c>
-      <c r="D53" s="39">
-        <v>1</v>
-      </c>
-      <c r="E53" s="39">
-        <v>1</v>
-      </c>
-      <c r="F53" s="39">
-        <v>1</v>
-      </c>
-      <c r="G53" s="39">
-        <v>1</v>
-      </c>
-      <c r="H53" s="39">
-        <v>1</v>
-      </c>
-      <c r="I53" s="39">
-        <v>1</v>
-      </c>
-      <c r="J53" s="39">
-        <v>1</v>
-      </c>
-      <c r="K53" s="39">
-        <v>1</v>
-      </c>
-      <c r="L53" s="39">
-        <v>1</v>
-      </c>
-      <c r="M53" s="39">
-        <v>1</v>
-      </c>
-      <c r="N53" s="39">
-        <v>1</v>
-      </c>
-      <c r="O53" s="40">
+      <c r="B53" s="40"/>
+      <c r="C53" s="34">
+        <v>1</v>
+      </c>
+      <c r="D53" s="34">
+        <v>1</v>
+      </c>
+      <c r="E53" s="34">
+        <v>1</v>
+      </c>
+      <c r="F53" s="34">
+        <v>1</v>
+      </c>
+      <c r="G53" s="34">
+        <v>1</v>
+      </c>
+      <c r="H53" s="34">
+        <v>1</v>
+      </c>
+      <c r="I53" s="34">
+        <v>1</v>
+      </c>
+      <c r="J53" s="34">
+        <v>1</v>
+      </c>
+      <c r="K53" s="34">
+        <v>1</v>
+      </c>
+      <c r="L53" s="34">
+        <v>1</v>
+      </c>
+      <c r="M53" s="34">
+        <v>1</v>
+      </c>
+      <c r="N53" s="34">
+        <v>1</v>
+      </c>
+      <c r="O53" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -3815,44 +3861,44 @@
       <c r="A54" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="39">
-        <v>1</v>
-      </c>
-      <c r="D54" s="39">
-        <v>1</v>
-      </c>
-      <c r="E54" s="39">
-        <v>1</v>
-      </c>
-      <c r="F54" s="39">
-        <v>1</v>
-      </c>
-      <c r="G54" s="39">
-        <v>1</v>
-      </c>
-      <c r="H54" s="39">
-        <v>1</v>
-      </c>
-      <c r="I54" s="39">
-        <v>1</v>
-      </c>
-      <c r="J54" s="39">
-        <v>1</v>
-      </c>
-      <c r="K54" s="39">
-        <v>1</v>
-      </c>
-      <c r="L54" s="39">
-        <v>1</v>
-      </c>
-      <c r="M54" s="39">
-        <v>1</v>
-      </c>
-      <c r="N54" s="39">
-        <v>1</v>
-      </c>
-      <c r="O54" s="40">
+      <c r="B54" s="40"/>
+      <c r="C54" s="34">
+        <v>1</v>
+      </c>
+      <c r="D54" s="34">
+        <v>1</v>
+      </c>
+      <c r="E54" s="34">
+        <v>1</v>
+      </c>
+      <c r="F54" s="34">
+        <v>1</v>
+      </c>
+      <c r="G54" s="34">
+        <v>1</v>
+      </c>
+      <c r="H54" s="34">
+        <v>1</v>
+      </c>
+      <c r="I54" s="34">
+        <v>1</v>
+      </c>
+      <c r="J54" s="34">
+        <v>1</v>
+      </c>
+      <c r="K54" s="34">
+        <v>1</v>
+      </c>
+      <c r="L54" s="34">
+        <v>1</v>
+      </c>
+      <c r="M54" s="34">
+        <v>1</v>
+      </c>
+      <c r="N54" s="34">
+        <v>1</v>
+      </c>
+      <c r="O54" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -3861,44 +3907,44 @@
       <c r="A55" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="39">
-        <v>1</v>
-      </c>
-      <c r="D55" s="39">
-        <v>1</v>
-      </c>
-      <c r="E55" s="39">
-        <v>1</v>
-      </c>
-      <c r="F55" s="39">
-        <v>1</v>
-      </c>
-      <c r="G55" s="39">
-        <v>1</v>
-      </c>
-      <c r="H55" s="39">
-        <v>1</v>
-      </c>
-      <c r="I55" s="39">
-        <v>1</v>
-      </c>
-      <c r="J55" s="39">
-        <v>1</v>
-      </c>
-      <c r="K55" s="39">
-        <v>1</v>
-      </c>
-      <c r="L55" s="39">
-        <v>1</v>
-      </c>
-      <c r="M55" s="39">
-        <v>1</v>
-      </c>
-      <c r="N55" s="39">
-        <v>1</v>
-      </c>
-      <c r="O55" s="40">
+      <c r="B55" s="40"/>
+      <c r="C55" s="34">
+        <v>1</v>
+      </c>
+      <c r="D55" s="34">
+        <v>1</v>
+      </c>
+      <c r="E55" s="34">
+        <v>1</v>
+      </c>
+      <c r="F55" s="34">
+        <v>1</v>
+      </c>
+      <c r="G55" s="34">
+        <v>1</v>
+      </c>
+      <c r="H55" s="34">
+        <v>1</v>
+      </c>
+      <c r="I55" s="34">
+        <v>1</v>
+      </c>
+      <c r="J55" s="34">
+        <v>1</v>
+      </c>
+      <c r="K55" s="34">
+        <v>1</v>
+      </c>
+      <c r="L55" s="34">
+        <v>1</v>
+      </c>
+      <c r="M55" s="34">
+        <v>1</v>
+      </c>
+      <c r="N55" s="34">
+        <v>1</v>
+      </c>
+      <c r="O55" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -3907,44 +3953,44 @@
       <c r="A56" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="39">
-        <v>1</v>
-      </c>
-      <c r="D56" s="39">
-        <v>1</v>
-      </c>
-      <c r="E56" s="39">
-        <v>1</v>
-      </c>
-      <c r="F56" s="39">
-        <v>1</v>
-      </c>
-      <c r="G56" s="39">
-        <v>1</v>
-      </c>
-      <c r="H56" s="39">
-        <v>1</v>
-      </c>
-      <c r="I56" s="39">
-        <v>1</v>
-      </c>
-      <c r="J56" s="39">
-        <v>1</v>
-      </c>
-      <c r="K56" s="39">
-        <v>1</v>
-      </c>
-      <c r="L56" s="39">
-        <v>1</v>
-      </c>
-      <c r="M56" s="39">
-        <v>1</v>
-      </c>
-      <c r="N56" s="39">
-        <v>1</v>
-      </c>
-      <c r="O56" s="40">
+      <c r="B56" s="40"/>
+      <c r="C56" s="34">
+        <v>1</v>
+      </c>
+      <c r="D56" s="34">
+        <v>1</v>
+      </c>
+      <c r="E56" s="34">
+        <v>1</v>
+      </c>
+      <c r="F56" s="34">
+        <v>1</v>
+      </c>
+      <c r="G56" s="34">
+        <v>1</v>
+      </c>
+      <c r="H56" s="34">
+        <v>1</v>
+      </c>
+      <c r="I56" s="34">
+        <v>1</v>
+      </c>
+      <c r="J56" s="34">
+        <v>1</v>
+      </c>
+      <c r="K56" s="34">
+        <v>1</v>
+      </c>
+      <c r="L56" s="34">
+        <v>1</v>
+      </c>
+      <c r="M56" s="34">
+        <v>1</v>
+      </c>
+      <c r="N56" s="34">
+        <v>1</v>
+      </c>
+      <c r="O56" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -3953,44 +3999,44 @@
       <c r="A57" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="39">
-        <v>1</v>
-      </c>
-      <c r="D57" s="39">
-        <v>1</v>
-      </c>
-      <c r="E57" s="39">
-        <v>1</v>
-      </c>
-      <c r="F57" s="39">
-        <v>1</v>
-      </c>
-      <c r="G57" s="39">
-        <v>1</v>
-      </c>
-      <c r="H57" s="39">
-        <v>1</v>
-      </c>
-      <c r="I57" s="39">
-        <v>1</v>
-      </c>
-      <c r="J57" s="39">
-        <v>1</v>
-      </c>
-      <c r="K57" s="39">
-        <v>1</v>
-      </c>
-      <c r="L57" s="39">
-        <v>1</v>
-      </c>
-      <c r="M57" s="39">
-        <v>1</v>
-      </c>
-      <c r="N57" s="39">
-        <v>1</v>
-      </c>
-      <c r="O57" s="40">
+      <c r="B57" s="40"/>
+      <c r="C57" s="34">
+        <v>1</v>
+      </c>
+      <c r="D57" s="34">
+        <v>1</v>
+      </c>
+      <c r="E57" s="34">
+        <v>1</v>
+      </c>
+      <c r="F57" s="34">
+        <v>1</v>
+      </c>
+      <c r="G57" s="34">
+        <v>1</v>
+      </c>
+      <c r="H57" s="34">
+        <v>1</v>
+      </c>
+      <c r="I57" s="34">
+        <v>1</v>
+      </c>
+      <c r="J57" s="34">
+        <v>1</v>
+      </c>
+      <c r="K57" s="34">
+        <v>1</v>
+      </c>
+      <c r="L57" s="34">
+        <v>1</v>
+      </c>
+      <c r="M57" s="34">
+        <v>1</v>
+      </c>
+      <c r="N57" s="34">
+        <v>1</v>
+      </c>
+      <c r="O57" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -3999,44 +4045,44 @@
       <c r="A58" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="39">
-        <v>1</v>
-      </c>
-      <c r="D58" s="39">
-        <v>1</v>
-      </c>
-      <c r="E58" s="39">
-        <v>1</v>
-      </c>
-      <c r="F58" s="39">
-        <v>1</v>
-      </c>
-      <c r="G58" s="39">
-        <v>1</v>
-      </c>
-      <c r="H58" s="39">
-        <v>1</v>
-      </c>
-      <c r="I58" s="39">
-        <v>1</v>
-      </c>
-      <c r="J58" s="39">
-        <v>1</v>
-      </c>
-      <c r="K58" s="39">
-        <v>1</v>
-      </c>
-      <c r="L58" s="39">
-        <v>1</v>
-      </c>
-      <c r="M58" s="39">
-        <v>1</v>
-      </c>
-      <c r="N58" s="39">
-        <v>1</v>
-      </c>
-      <c r="O58" s="40">
+      <c r="B58" s="40"/>
+      <c r="C58" s="34">
+        <v>1</v>
+      </c>
+      <c r="D58" s="34">
+        <v>1</v>
+      </c>
+      <c r="E58" s="34">
+        <v>1</v>
+      </c>
+      <c r="F58" s="34">
+        <v>1</v>
+      </c>
+      <c r="G58" s="34">
+        <v>1</v>
+      </c>
+      <c r="H58" s="34">
+        <v>1</v>
+      </c>
+      <c r="I58" s="34">
+        <v>1</v>
+      </c>
+      <c r="J58" s="34">
+        <v>1</v>
+      </c>
+      <c r="K58" s="34">
+        <v>1</v>
+      </c>
+      <c r="L58" s="34">
+        <v>1</v>
+      </c>
+      <c r="M58" s="34">
+        <v>1</v>
+      </c>
+      <c r="N58" s="34">
+        <v>1</v>
+      </c>
+      <c r="O58" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -4045,44 +4091,44 @@
       <c r="A59" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="39">
-        <v>1</v>
-      </c>
-      <c r="D59" s="39">
-        <v>1</v>
-      </c>
-      <c r="E59" s="39">
-        <v>1</v>
-      </c>
-      <c r="F59" s="39">
-        <v>1</v>
-      </c>
-      <c r="G59" s="39">
-        <v>1</v>
-      </c>
-      <c r="H59" s="39">
-        <v>1</v>
-      </c>
-      <c r="I59" s="39">
-        <v>1</v>
-      </c>
-      <c r="J59" s="39">
-        <v>1</v>
-      </c>
-      <c r="K59" s="39">
-        <v>1</v>
-      </c>
-      <c r="L59" s="39">
-        <v>1</v>
-      </c>
-      <c r="M59" s="39">
-        <v>1</v>
-      </c>
-      <c r="N59" s="39">
-        <v>1</v>
-      </c>
-      <c r="O59" s="40">
+      <c r="B59" s="40"/>
+      <c r="C59" s="34">
+        <v>1</v>
+      </c>
+      <c r="D59" s="34">
+        <v>1</v>
+      </c>
+      <c r="E59" s="34">
+        <v>1</v>
+      </c>
+      <c r="F59" s="34">
+        <v>1</v>
+      </c>
+      <c r="G59" s="34">
+        <v>1</v>
+      </c>
+      <c r="H59" s="34">
+        <v>1</v>
+      </c>
+      <c r="I59" s="34">
+        <v>1</v>
+      </c>
+      <c r="J59" s="34">
+        <v>1</v>
+      </c>
+      <c r="K59" s="34">
+        <v>1</v>
+      </c>
+      <c r="L59" s="34">
+        <v>1</v>
+      </c>
+      <c r="M59" s="34">
+        <v>1</v>
+      </c>
+      <c r="N59" s="34">
+        <v>1</v>
+      </c>
+      <c r="O59" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -4091,102 +4137,102 @@
       <c r="A60" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="47">
+      <c r="B60" s="40"/>
+      <c r="C60" s="46">
         <f>SUM(C35:C59)</f>
-        <v>1142.4000000000001</v>
-      </c>
-      <c r="D60" s="47">
+        <v>1242.4000000000001</v>
+      </c>
+      <c r="D60" s="46">
         <f t="shared" ref="D60:N60" si="14">SUM(D35:D59)</f>
-        <v>1110.3599999999999</v>
-      </c>
-      <c r="E60" s="47">
+        <v>1210.3599999999999</v>
+      </c>
+      <c r="E60" s="46">
         <f t="shared" si="14"/>
-        <v>1206.48</v>
-      </c>
-      <c r="F60" s="47">
+        <v>1306.48</v>
+      </c>
+      <c r="F60" s="46">
         <f t="shared" si="14"/>
-        <v>1270.56</v>
-      </c>
-      <c r="G60" s="47">
+        <v>1370.56</v>
+      </c>
+      <c r="G60" s="46">
         <f t="shared" si="14"/>
-        <v>1334.6399999999999</v>
-      </c>
-      <c r="H60" s="47">
+        <v>1434.6399999999999</v>
+      </c>
+      <c r="H60" s="46">
         <f t="shared" si="14"/>
-        <v>1302.5999999999999</v>
-      </c>
-      <c r="I60" s="47">
+        <v>1402.6</v>
+      </c>
+      <c r="I60" s="46">
         <f t="shared" si="14"/>
-        <v>1398.7199999999998</v>
-      </c>
-      <c r="J60" s="47">
+        <v>1498.7199999999998</v>
+      </c>
+      <c r="J60" s="46">
         <f t="shared" si="14"/>
-        <v>1366.6799999999998</v>
-      </c>
-      <c r="K60" s="47">
+        <v>1466.6799999999998</v>
+      </c>
+      <c r="K60" s="46">
         <f t="shared" si="14"/>
-        <v>1438.52</v>
-      </c>
-      <c r="L60" s="47">
+        <v>1638.52</v>
+      </c>
+      <c r="L60" s="46">
         <f t="shared" si="14"/>
-        <v>1502.6</v>
-      </c>
-      <c r="M60" s="47">
+        <v>1702.6</v>
+      </c>
+      <c r="M60" s="46">
         <f t="shared" si="14"/>
-        <v>1630.76</v>
-      </c>
-      <c r="N60" s="47">
+        <v>1830.76</v>
+      </c>
+      <c r="N60" s="46">
         <f t="shared" si="14"/>
-        <v>1758.9199999999998</v>
-      </c>
-      <c r="O60" s="40">
+        <v>1958.9199999999998</v>
+      </c>
+      <c r="O60" s="39">
         <f t="shared" si="12"/>
-        <v>16463.240000000002</v>
+        <v>18063.240000000002</v>
       </c>
     </row>
     <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="39">
-        <v>1</v>
-      </c>
-      <c r="D61" s="39">
-        <v>1</v>
-      </c>
-      <c r="E61" s="39">
-        <v>1</v>
-      </c>
-      <c r="F61" s="39">
-        <v>1</v>
-      </c>
-      <c r="G61" s="39">
-        <v>1</v>
-      </c>
-      <c r="H61" s="39">
-        <v>1</v>
-      </c>
-      <c r="I61" s="39">
-        <v>1</v>
-      </c>
-      <c r="J61" s="39">
-        <v>1</v>
-      </c>
-      <c r="K61" s="39">
-        <v>1</v>
-      </c>
-      <c r="L61" s="39">
-        <v>1</v>
-      </c>
-      <c r="M61" s="39">
-        <v>1</v>
-      </c>
-      <c r="N61" s="39">
-        <v>1</v>
-      </c>
-      <c r="O61" s="40">
+      <c r="B61" s="40"/>
+      <c r="C61" s="34">
+        <v>1</v>
+      </c>
+      <c r="D61" s="34">
+        <v>1</v>
+      </c>
+      <c r="E61" s="34">
+        <v>1</v>
+      </c>
+      <c r="F61" s="34">
+        <v>1</v>
+      </c>
+      <c r="G61" s="34">
+        <v>1</v>
+      </c>
+      <c r="H61" s="34">
+        <v>1</v>
+      </c>
+      <c r="I61" s="34">
+        <v>1</v>
+      </c>
+      <c r="J61" s="34">
+        <v>1</v>
+      </c>
+      <c r="K61" s="34">
+        <v>1</v>
+      </c>
+      <c r="L61" s="34">
+        <v>1</v>
+      </c>
+      <c r="M61" s="34">
+        <v>1</v>
+      </c>
+      <c r="N61" s="34">
+        <v>1</v>
+      </c>
+      <c r="O61" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -4195,44 +4241,44 @@
       <c r="A62" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="39">
-        <v>1</v>
-      </c>
-      <c r="D62" s="39">
-        <v>1</v>
-      </c>
-      <c r="E62" s="39">
-        <v>1</v>
-      </c>
-      <c r="F62" s="39">
-        <v>1</v>
-      </c>
-      <c r="G62" s="39">
-        <v>1</v>
-      </c>
-      <c r="H62" s="39">
-        <v>1</v>
-      </c>
-      <c r="I62" s="39">
-        <v>1</v>
-      </c>
-      <c r="J62" s="39">
-        <v>1</v>
-      </c>
-      <c r="K62" s="39">
-        <v>1</v>
-      </c>
-      <c r="L62" s="39">
-        <v>1</v>
-      </c>
-      <c r="M62" s="39">
-        <v>1</v>
-      </c>
-      <c r="N62" s="39">
-        <v>1</v>
-      </c>
-      <c r="O62" s="40">
+      <c r="B62" s="40"/>
+      <c r="C62" s="34">
+        <v>1</v>
+      </c>
+      <c r="D62" s="34">
+        <v>1</v>
+      </c>
+      <c r="E62" s="34">
+        <v>1</v>
+      </c>
+      <c r="F62" s="34">
+        <v>1</v>
+      </c>
+      <c r="G62" s="34">
+        <v>1</v>
+      </c>
+      <c r="H62" s="34">
+        <v>1</v>
+      </c>
+      <c r="I62" s="34">
+        <v>1</v>
+      </c>
+      <c r="J62" s="34">
+        <v>1</v>
+      </c>
+      <c r="K62" s="34">
+        <v>1</v>
+      </c>
+      <c r="L62" s="34">
+        <v>1</v>
+      </c>
+      <c r="M62" s="34">
+        <v>1</v>
+      </c>
+      <c r="N62" s="34">
+        <v>1</v>
+      </c>
+      <c r="O62" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -4241,44 +4287,44 @@
       <c r="A63" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B63" s="41"/>
-      <c r="C63" s="39">
-        <v>1</v>
-      </c>
-      <c r="D63" s="39">
-        <v>1</v>
-      </c>
-      <c r="E63" s="39">
-        <v>1</v>
-      </c>
-      <c r="F63" s="39">
-        <v>1</v>
-      </c>
-      <c r="G63" s="39">
-        <v>1</v>
-      </c>
-      <c r="H63" s="39">
-        <v>1</v>
-      </c>
-      <c r="I63" s="39">
-        <v>1</v>
-      </c>
-      <c r="J63" s="39">
-        <v>1</v>
-      </c>
-      <c r="K63" s="39">
-        <v>1</v>
-      </c>
-      <c r="L63" s="39">
-        <v>1</v>
-      </c>
-      <c r="M63" s="39">
-        <v>1</v>
-      </c>
-      <c r="N63" s="39">
-        <v>1</v>
-      </c>
-      <c r="O63" s="40">
+      <c r="B63" s="40"/>
+      <c r="C63" s="34">
+        <v>1</v>
+      </c>
+      <c r="D63" s="34">
+        <v>1</v>
+      </c>
+      <c r="E63" s="34">
+        <v>1</v>
+      </c>
+      <c r="F63" s="34">
+        <v>1</v>
+      </c>
+      <c r="G63" s="34">
+        <v>1</v>
+      </c>
+      <c r="H63" s="34">
+        <v>1</v>
+      </c>
+      <c r="I63" s="34">
+        <v>1</v>
+      </c>
+      <c r="J63" s="34">
+        <v>1</v>
+      </c>
+      <c r="K63" s="34">
+        <v>1</v>
+      </c>
+      <c r="L63" s="34">
+        <v>1</v>
+      </c>
+      <c r="M63" s="34">
+        <v>1</v>
+      </c>
+      <c r="N63" s="34">
+        <v>1</v>
+      </c>
+      <c r="O63" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -4287,44 +4333,44 @@
       <c r="A64" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="39">
-        <v>1</v>
-      </c>
-      <c r="D64" s="39">
-        <v>1</v>
-      </c>
-      <c r="E64" s="39">
-        <v>1</v>
-      </c>
-      <c r="F64" s="39">
-        <v>1</v>
-      </c>
-      <c r="G64" s="39">
-        <v>1</v>
-      </c>
-      <c r="H64" s="39">
-        <v>1</v>
-      </c>
-      <c r="I64" s="39">
-        <v>1</v>
-      </c>
-      <c r="J64" s="39">
-        <v>1</v>
-      </c>
-      <c r="K64" s="39">
-        <v>1</v>
-      </c>
-      <c r="L64" s="39">
-        <v>1</v>
-      </c>
-      <c r="M64" s="39">
-        <v>1</v>
-      </c>
-      <c r="N64" s="39">
-        <v>1</v>
-      </c>
-      <c r="O64" s="40">
+      <c r="B64" s="40"/>
+      <c r="C64" s="34">
+        <v>1</v>
+      </c>
+      <c r="D64" s="34">
+        <v>1</v>
+      </c>
+      <c r="E64" s="34">
+        <v>1</v>
+      </c>
+      <c r="F64" s="34">
+        <v>1</v>
+      </c>
+      <c r="G64" s="34">
+        <v>1</v>
+      </c>
+      <c r="H64" s="34">
+        <v>1</v>
+      </c>
+      <c r="I64" s="34">
+        <v>1</v>
+      </c>
+      <c r="J64" s="34">
+        <v>1</v>
+      </c>
+      <c r="K64" s="34">
+        <v>1</v>
+      </c>
+      <c r="L64" s="34">
+        <v>1</v>
+      </c>
+      <c r="M64" s="34">
+        <v>1</v>
+      </c>
+      <c r="N64" s="34">
+        <v>1</v>
+      </c>
+      <c r="O64" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -4333,185 +4379,193 @@
       <c r="A65" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="41"/>
-      <c r="C65" s="39">
-        <v>1</v>
-      </c>
-      <c r="D65" s="39">
-        <v>1</v>
-      </c>
-      <c r="E65" s="39">
-        <v>1</v>
-      </c>
-      <c r="F65" s="39">
-        <v>1</v>
-      </c>
-      <c r="G65" s="39">
-        <v>1</v>
-      </c>
-      <c r="H65" s="39">
-        <v>1</v>
-      </c>
-      <c r="I65" s="39">
-        <v>1</v>
-      </c>
-      <c r="J65" s="39">
-        <v>1</v>
-      </c>
-      <c r="K65" s="39">
-        <v>1</v>
-      </c>
-      <c r="L65" s="39">
-        <v>1</v>
-      </c>
-      <c r="M65" s="39">
-        <v>1</v>
-      </c>
-      <c r="N65" s="39">
-        <v>1</v>
-      </c>
-      <c r="O65" s="40">
+      <c r="B65" s="40"/>
+      <c r="C65" s="34">
+        <v>1</v>
+      </c>
+      <c r="D65" s="34">
+        <v>1</v>
+      </c>
+      <c r="E65" s="34">
+        <v>1</v>
+      </c>
+      <c r="F65" s="34">
+        <v>1</v>
+      </c>
+      <c r="G65" s="34">
+        <v>1</v>
+      </c>
+      <c r="H65" s="34">
+        <v>1</v>
+      </c>
+      <c r="I65" s="34">
+        <v>1</v>
+      </c>
+      <c r="J65" s="34">
+        <v>1</v>
+      </c>
+      <c r="K65" s="34">
+        <v>1</v>
+      </c>
+      <c r="L65" s="34">
+        <v>1</v>
+      </c>
+      <c r="M65" s="34">
+        <v>1</v>
+      </c>
+      <c r="N65" s="34">
+        <v>1</v>
+      </c>
+      <c r="O65" s="39">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="47">
+      <c r="B66" s="47"/>
+      <c r="C66" s="46">
         <f>C60-SUM(C61:C65)</f>
-        <v>1137.4000000000001</v>
-      </c>
-      <c r="D66" s="47">
+        <v>1237.4000000000001</v>
+      </c>
+      <c r="D66" s="46">
         <f t="shared" ref="D66:N66" si="15">D60-SUM(D61:D65)</f>
-        <v>1105.3599999999999</v>
-      </c>
-      <c r="E66" s="47">
+        <v>1205.3599999999999</v>
+      </c>
+      <c r="E66" s="46">
         <f t="shared" si="15"/>
-        <v>1201.48</v>
-      </c>
-      <c r="F66" s="47">
+        <v>1301.48</v>
+      </c>
+      <c r="F66" s="46">
         <f t="shared" si="15"/>
-        <v>1265.56</v>
-      </c>
-      <c r="G66" s="47">
+        <v>1365.56</v>
+      </c>
+      <c r="G66" s="46">
         <f t="shared" si="15"/>
-        <v>1329.6399999999999</v>
-      </c>
-      <c r="H66" s="47">
+        <v>1429.6399999999999</v>
+      </c>
+      <c r="H66" s="46">
         <f t="shared" si="15"/>
-        <v>1297.5999999999999</v>
-      </c>
-      <c r="I66" s="47">
+        <v>1397.6</v>
+      </c>
+      <c r="I66" s="46">
         <f t="shared" si="15"/>
-        <v>1393.7199999999998</v>
-      </c>
-      <c r="J66" s="47">
+        <v>1493.7199999999998</v>
+      </c>
+      <c r="J66" s="46">
         <f t="shared" si="15"/>
-        <v>1361.6799999999998</v>
-      </c>
-      <c r="K66" s="47">
+        <v>1461.6799999999998</v>
+      </c>
+      <c r="K66" s="46">
         <f t="shared" si="15"/>
-        <v>1433.52</v>
-      </c>
-      <c r="L66" s="47">
+        <v>1633.52</v>
+      </c>
+      <c r="L66" s="46">
         <f t="shared" si="15"/>
-        <v>1497.6</v>
-      </c>
-      <c r="M66" s="47">
+        <v>1697.6</v>
+      </c>
+      <c r="M66" s="46">
         <f t="shared" si="15"/>
-        <v>1625.76</v>
-      </c>
-      <c r="N66" s="47">
+        <v>1825.76</v>
+      </c>
+      <c r="N66" s="46">
         <f t="shared" si="15"/>
-        <v>1753.9199999999998</v>
-      </c>
-      <c r="O66" s="40">
+        <v>1953.9199999999998</v>
+      </c>
+      <c r="O66" s="39">
         <f t="shared" si="12"/>
-        <v>16403.240000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>18003.240000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B67" s="49">
+      <c r="B67" s="48">
         <f t="shared" ref="B67:N67" si="16">B32-B66</f>
         <v>50</v>
       </c>
-      <c r="C67" s="49">
+      <c r="C67" s="48">
         <f t="shared" si="16"/>
-        <v>-126.20000000000005</v>
-      </c>
-      <c r="D67" s="49">
+        <v>-226.20000000000005</v>
+      </c>
+      <c r="D67" s="48">
         <f t="shared" si="16"/>
-        <v>-270.36</v>
-      </c>
-      <c r="E67" s="49">
+        <v>-470.36</v>
+      </c>
+      <c r="E67" s="48">
         <f t="shared" si="16"/>
-        <v>-190.24000000000012</v>
-      </c>
-      <c r="F67" s="49">
+        <v>-490.24000000000012</v>
+      </c>
+      <c r="F67" s="48">
         <f t="shared" si="16"/>
-        <v>39.400000000000091</v>
-      </c>
-      <c r="G67" s="49">
+        <v>-360.6</v>
+      </c>
+      <c r="G67" s="48">
         <f t="shared" si="16"/>
-        <v>418.56000000000017</v>
-      </c>
-      <c r="H67" s="49">
+        <v>-81.440000000000055</v>
+      </c>
+      <c r="H67" s="48">
         <f t="shared" si="16"/>
-        <v>722.96000000000026</v>
-      </c>
-      <c r="I67" s="49">
+        <v>122.96000000000004</v>
+      </c>
+      <c r="I67" s="48">
         <f t="shared" si="16"/>
-        <v>1251.6400000000003</v>
-      </c>
-      <c r="J67" s="49">
+        <v>551.6400000000001</v>
+      </c>
+      <c r="J67" s="48">
         <f t="shared" si="16"/>
-        <v>1705.5600000000004</v>
-      </c>
-      <c r="K67" s="49">
+        <v>905.56</v>
+      </c>
+      <c r="K67" s="48">
         <f t="shared" si="16"/>
-        <v>1660.44</v>
-      </c>
-      <c r="L67" s="49">
+        <v>660.44</v>
+      </c>
+      <c r="L67" s="48">
         <f t="shared" si="16"/>
-        <v>1764.8400000000001</v>
-      </c>
-      <c r="M67" s="49">
+        <v>564.84000000000015</v>
+      </c>
+      <c r="M67" s="48">
         <f t="shared" si="16"/>
-        <v>2168.2799999999997</v>
-      </c>
-      <c r="N67" s="49">
+        <v>768.28</v>
+      </c>
+      <c r="N67" s="48">
         <f t="shared" si="16"/>
-        <v>2870.7599999999993</v>
-      </c>
-      <c r="O67" s="50"/>
-      <c r="W67" s="51"/>
+        <v>1270.7599999999995</v>
+      </c>
+      <c r="O67" s="49"/>
+      <c r="W67" s="50"/>
     </row>
   </sheetData>
+  <scenarios current="0">
+    <scenario name="HighFRowth" locked="1" count="4" user="Keene Chung" comment="Created by Keene Chung on 6/6/2025">
+      <inputCells r="B11" val="0.1" numFmtId="9"/>
+      <inputCells r="B12" val="0.5" numFmtId="9"/>
+      <inputCells r="B13" val="89" numFmtId="6"/>
+      <inputCells r="B14" val="300" numFmtId="8"/>
+    </scenario>
+  </scenarios>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="38" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -4530,7 +4584,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>48</v>
       </c>
@@ -4549,7 +4603,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4557,7 +4611,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="10"/>
       <c r="C5" s="6">
@@ -4609,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>46</v>
       </c>
@@ -4629,7 +4683,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>49</v>
       </c>
@@ -4650,7 +4704,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>50</v>
       </c>
@@ -4671,7 +4725,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="6"/>
@@ -4687,7 +4741,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -4703,7 +4757,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>47</v>
       </c>
@@ -4757,7 +4811,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>74</v>
       </c>
@@ -4801,7 +4855,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>67</v>
       </c>
@@ -4845,7 +4899,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>63</v>
       </c>
@@ -4901,7 +4955,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -4916,7 +4970,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>69</v>
       </c>
@@ -4959,7 +5013,7 @@
       </c>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
@@ -5001,7 +5055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
@@ -5056,7 +5110,7 @@
       </c>
       <c r="O18" s="26"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
@@ -5099,7 +5153,7 @@
       </c>
       <c r="O19" s="26"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>72</v>
       </c>
@@ -5153,7 +5207,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>71</v>
       </c>
@@ -5208,7 +5262,7 @@
       </c>
       <c r="O21" s="26"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>73</v>
       </c>
@@ -5263,7 +5317,7 @@
       </c>
       <c r="O22" s="26"/>
     </row>
-    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>68</v>
       </c>
@@ -5310,7 +5364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -5367,7 +5421,7 @@
       </c>
       <c r="O25" s="30"/>
     </row>
-    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
@@ -5460,118 +5514,118 @@
       <c r="N28" s="36"/>
       <c r="O28" s="37"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="38"/>
-      <c r="C29" s="39">
+      <c r="C29" s="34">
         <f t="shared" ref="C29:N29" si="10">C18*$B$13</f>
         <v>1068</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="34">
         <f t="shared" si="10"/>
         <v>961.19999999999993</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="34">
         <f t="shared" si="10"/>
         <v>1281.5999999999999</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="34">
         <f t="shared" si="10"/>
         <v>1495.2</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="34">
         <f t="shared" si="10"/>
         <v>1708.8</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="34">
         <f t="shared" si="10"/>
         <v>1602</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="34">
         <f t="shared" si="10"/>
         <v>1922.3999999999999</v>
       </c>
-      <c r="J29" s="39">
+      <c r="J29" s="34">
         <f t="shared" si="10"/>
         <v>1815.6</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="34">
         <f t="shared" si="10"/>
         <v>1388.3999999999999</v>
       </c>
-      <c r="L29" s="39">
+      <c r="L29" s="34">
         <f t="shared" si="10"/>
         <v>1602</v>
       </c>
-      <c r="M29" s="39">
+      <c r="M29" s="34">
         <f t="shared" si="10"/>
         <v>2029.2</v>
       </c>
-      <c r="N29" s="39">
+      <c r="N29" s="34">
         <f t="shared" si="10"/>
         <v>2456.3999999999996</v>
       </c>
-      <c r="O29" s="40">
+      <c r="O29" s="39">
         <f>SUM(B29:N29)</f>
         <v>19330.800000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="39">
+      <c r="B30" s="40"/>
+      <c r="C30" s="34">
         <f>(C29*B11)/12</f>
         <v>0.7416666666666667</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="34">
         <f t="shared" ref="D30:N30" si="11">(D29*C11)/12</f>
         <v>0.66749999999999998</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="34">
         <f t="shared" si="11"/>
         <v>0.89</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="34">
         <f t="shared" si="11"/>
         <v>1.0383333333333333</v>
       </c>
-      <c r="G30" s="39">
+      <c r="G30" s="34">
         <f t="shared" si="11"/>
         <v>1.1866666666666668</v>
       </c>
-      <c r="H30" s="39">
+      <c r="H30" s="34">
         <f t="shared" si="11"/>
         <v>1.1125</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="34">
         <f t="shared" si="11"/>
         <v>1.335</v>
       </c>
-      <c r="J30" s="39">
+      <c r="J30" s="34">
         <f t="shared" si="11"/>
         <v>1.2608333333333333</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="34">
         <f t="shared" si="11"/>
         <v>0.96416666666666651</v>
       </c>
-      <c r="L30" s="39">
+      <c r="L30" s="34">
         <f t="shared" si="11"/>
         <v>1.1125</v>
       </c>
-      <c r="M30" s="39">
+      <c r="M30" s="34">
         <f t="shared" si="11"/>
         <v>3.3820000000000001</v>
       </c>
-      <c r="N30" s="39">
+      <c r="N30" s="34">
         <f t="shared" si="11"/>
         <v>4.0939999999999994</v>
       </c>
-      <c r="O30" s="40">
+      <c r="O30" s="39">
         <f t="shared" ref="O30:O34" si="12">SUM(B30:N30)</f>
         <v>17.785166666666669</v>
       </c>
@@ -5580,20 +5634,20 @@
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="40">
+      <c r="B31" s="40"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -5602,20 +5656,20 @@
       <c r="A32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="40">
+      <c r="B32" s="40"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -5624,20 +5678,20 @@
       <c r="A33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="40">
+      <c r="B33" s="40"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -5646,141 +5700,141 @@
       <c r="A34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="40">
+      <c r="B34" s="40"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43">
+      <c r="B35" s="41"/>
+      <c r="C35" s="42">
         <f t="shared" ref="C35:N35" si="13">SUM(C29,C31:C34,(C30*-1))</f>
         <v>1067.2583333333334</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="42">
         <f t="shared" si="13"/>
         <v>960.53249999999991</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="42">
         <f t="shared" si="13"/>
         <v>1280.7099999999998</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="42">
         <f t="shared" si="13"/>
         <v>1494.1616666666666</v>
       </c>
-      <c r="G35" s="43">
+      <c r="G35" s="42">
         <f t="shared" si="13"/>
         <v>1707.6133333333332</v>
       </c>
-      <c r="H35" s="43">
+      <c r="H35" s="42">
         <f t="shared" si="13"/>
         <v>1600.8875</v>
       </c>
-      <c r="I35" s="43">
+      <c r="I35" s="42">
         <f t="shared" si="13"/>
         <v>1921.0649999999998</v>
       </c>
-      <c r="J35" s="43">
+      <c r="J35" s="42">
         <f t="shared" si="13"/>
         <v>1814.3391666666666</v>
       </c>
-      <c r="K35" s="43">
+      <c r="K35" s="42">
         <f t="shared" si="13"/>
         <v>1387.4358333333332</v>
       </c>
-      <c r="L35" s="43">
+      <c r="L35" s="42">
         <f t="shared" si="13"/>
         <v>1600.8875</v>
       </c>
-      <c r="M35" s="43">
+      <c r="M35" s="42">
         <f t="shared" si="13"/>
         <v>2025.818</v>
       </c>
-      <c r="N35" s="43">
+      <c r="N35" s="42">
         <f t="shared" si="13"/>
         <v>2452.3059999999996</v>
       </c>
-      <c r="O35" s="44">
+      <c r="O35" s="43">
         <f>SUM(O29:O34)</f>
         <v>19348.585166666671</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="44">
         <f t="shared" ref="B36:N36" si="14">(B25+B35)</f>
         <v>50</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C36" s="44">
         <f t="shared" si="14"/>
         <v>1117.2583333333334</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D36" s="44">
         <f t="shared" si="14"/>
         <v>940.39083333333326</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E36" s="44">
         <f t="shared" si="14"/>
         <v>1115.7408333333333</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="44">
         <f t="shared" si="14"/>
         <v>1408.4224999999999</v>
       </c>
-      <c r="G36" s="45">
+      <c r="G36" s="44">
         <f t="shared" si="14"/>
         <v>1850.4758333333332</v>
       </c>
-      <c r="H36" s="45">
+      <c r="H36" s="44">
         <f t="shared" si="14"/>
         <v>2121.7233333333334</v>
       </c>
-      <c r="I36" s="45">
+      <c r="I36" s="44">
         <f t="shared" si="14"/>
         <v>2745.1883333333335</v>
       </c>
-      <c r="J36" s="45">
+      <c r="J36" s="44">
         <f t="shared" si="14"/>
         <v>3165.8075000000003</v>
       </c>
-      <c r="K36" s="45">
+      <c r="K36" s="44">
         <f t="shared" si="14"/>
         <v>3191.5633333333335</v>
       </c>
-      <c r="L36" s="45">
+      <c r="L36" s="44">
         <f t="shared" si="14"/>
         <v>3358.9308333333338</v>
       </c>
-      <c r="M36" s="45">
+      <c r="M36" s="44">
         <f t="shared" si="14"/>
         <v>3887.1488333333336</v>
       </c>
-      <c r="N36" s="45">
+      <c r="N36" s="44">
         <f t="shared" si="14"/>
         <v>4713.694833333333</v>
       </c>
-      <c r="O36" s="46"/>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O36" s="45"/>
+    </row>
+    <row r="37" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
@@ -5816,348 +5870,348 @@
       <c r="N38" s="36"/>
       <c r="O38" s="37"/>
     </row>
-    <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="38"/>
-      <c r="C39" s="39">
+      <c r="C39" s="34">
         <f t="shared" ref="C39:N39" si="15">C14</f>
         <v>200</v>
       </c>
-      <c r="D39" s="39">
+      <c r="D39" s="34">
         <f t="shared" si="15"/>
         <v>200</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="34">
         <f t="shared" si="15"/>
         <v>200</v>
       </c>
-      <c r="F39" s="39">
+      <c r="F39" s="34">
         <f t="shared" si="15"/>
         <v>200</v>
       </c>
-      <c r="G39" s="39">
+      <c r="G39" s="34">
         <f t="shared" si="15"/>
         <v>200</v>
       </c>
-      <c r="H39" s="39">
+      <c r="H39" s="34">
         <f t="shared" si="15"/>
         <v>200</v>
       </c>
-      <c r="I39" s="39">
+      <c r="I39" s="34">
         <f t="shared" si="15"/>
         <v>200</v>
       </c>
-      <c r="J39" s="39">
+      <c r="J39" s="34">
         <f t="shared" si="15"/>
         <v>200</v>
       </c>
-      <c r="K39" s="39">
+      <c r="K39" s="34">
         <f t="shared" si="15"/>
         <v>400</v>
       </c>
-      <c r="L39" s="39">
+      <c r="L39" s="34">
         <f t="shared" si="15"/>
         <v>400</v>
       </c>
-      <c r="M39" s="39">
+      <c r="M39" s="34">
         <f t="shared" si="15"/>
         <v>400</v>
       </c>
-      <c r="N39" s="39">
+      <c r="N39" s="34">
         <f t="shared" si="15"/>
         <v>400</v>
       </c>
-      <c r="O39" s="40">
+      <c r="O39" s="39">
         <f t="shared" ref="O39:O70" si="16">SUM(C39:N39)</f>
         <v>3200</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="39">
-        <v>1</v>
-      </c>
-      <c r="D40" s="39">
-        <v>1</v>
-      </c>
-      <c r="E40" s="39">
-        <v>1</v>
-      </c>
-      <c r="F40" s="39">
-        <v>1</v>
-      </c>
-      <c r="G40" s="39">
-        <v>1</v>
-      </c>
-      <c r="H40" s="39">
-        <v>1</v>
-      </c>
-      <c r="I40" s="39">
-        <v>1</v>
-      </c>
-      <c r="J40" s="39">
-        <v>1</v>
-      </c>
-      <c r="K40" s="39">
-        <v>1</v>
-      </c>
-      <c r="L40" s="39">
-        <v>1</v>
-      </c>
-      <c r="M40" s="39">
-        <v>1</v>
-      </c>
-      <c r="N40" s="39">
-        <v>1</v>
-      </c>
-      <c r="O40" s="40">
+      <c r="B40" s="40"/>
+      <c r="C40" s="34">
+        <v>1</v>
+      </c>
+      <c r="D40" s="34">
+        <v>1</v>
+      </c>
+      <c r="E40" s="34">
+        <v>1</v>
+      </c>
+      <c r="F40" s="34">
+        <v>1</v>
+      </c>
+      <c r="G40" s="34">
+        <v>1</v>
+      </c>
+      <c r="H40" s="34">
+        <v>1</v>
+      </c>
+      <c r="I40" s="34">
+        <v>1</v>
+      </c>
+      <c r="J40" s="34">
+        <v>1</v>
+      </c>
+      <c r="K40" s="34">
+        <v>1</v>
+      </c>
+      <c r="L40" s="34">
+        <v>1</v>
+      </c>
+      <c r="M40" s="34">
+        <v>1</v>
+      </c>
+      <c r="N40" s="34">
+        <v>1</v>
+      </c>
+      <c r="O40" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="39">
+      <c r="B41" s="40"/>
+      <c r="C41" s="34">
         <v>600</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="34">
         <v>600</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E41" s="34">
         <v>600</v>
       </c>
-      <c r="F41" s="39">
+      <c r="F41" s="34">
         <v>600</v>
       </c>
-      <c r="G41" s="39">
+      <c r="G41" s="34">
         <v>600</v>
       </c>
-      <c r="H41" s="39">
+      <c r="H41" s="34">
         <v>600</v>
       </c>
-      <c r="I41" s="39">
+      <c r="I41" s="34">
         <v>600</v>
       </c>
-      <c r="J41" s="39">
+      <c r="J41" s="34">
         <v>600</v>
       </c>
-      <c r="K41" s="39">
+      <c r="K41" s="34">
         <v>600</v>
       </c>
-      <c r="L41" s="39">
+      <c r="L41" s="34">
         <v>600</v>
       </c>
-      <c r="M41" s="39">
+      <c r="M41" s="34">
         <v>600</v>
       </c>
-      <c r="N41" s="39">
+      <c r="N41" s="34">
         <v>600</v>
       </c>
-      <c r="O41" s="40">
+      <c r="O41" s="39">
         <f t="shared" si="16"/>
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="39">
-        <v>1</v>
-      </c>
-      <c r="D42" s="39">
-        <v>1</v>
-      </c>
-      <c r="E42" s="39">
-        <v>1</v>
-      </c>
-      <c r="F42" s="39">
-        <v>1</v>
-      </c>
-      <c r="G42" s="39">
-        <v>1</v>
-      </c>
-      <c r="H42" s="39">
-        <v>1</v>
-      </c>
-      <c r="I42" s="39">
-        <v>1</v>
-      </c>
-      <c r="J42" s="39">
-        <v>1</v>
-      </c>
-      <c r="K42" s="39">
-        <v>1</v>
-      </c>
-      <c r="L42" s="39">
-        <v>1</v>
-      </c>
-      <c r="M42" s="39">
-        <v>1</v>
-      </c>
-      <c r="N42" s="39">
-        <v>1</v>
-      </c>
-      <c r="O42" s="40">
+      <c r="B42" s="40"/>
+      <c r="C42" s="34">
+        <v>1</v>
+      </c>
+      <c r="D42" s="34">
+        <v>1</v>
+      </c>
+      <c r="E42" s="34">
+        <v>1</v>
+      </c>
+      <c r="F42" s="34">
+        <v>1</v>
+      </c>
+      <c r="G42" s="34">
+        <v>1</v>
+      </c>
+      <c r="H42" s="34">
+        <v>1</v>
+      </c>
+      <c r="I42" s="34">
+        <v>1</v>
+      </c>
+      <c r="J42" s="34">
+        <v>1</v>
+      </c>
+      <c r="K42" s="34">
+        <v>1</v>
+      </c>
+      <c r="L42" s="34">
+        <v>1</v>
+      </c>
+      <c r="M42" s="34">
+        <v>1</v>
+      </c>
+      <c r="N42" s="34">
+        <v>1</v>
+      </c>
+      <c r="O42" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="39">
-        <v>1</v>
-      </c>
-      <c r="D43" s="39">
-        <v>1</v>
-      </c>
-      <c r="E43" s="39">
-        <v>1</v>
-      </c>
-      <c r="F43" s="39">
-        <v>1</v>
-      </c>
-      <c r="G43" s="39">
-        <v>1</v>
-      </c>
-      <c r="H43" s="39">
-        <v>1</v>
-      </c>
-      <c r="I43" s="39">
-        <v>1</v>
-      </c>
-      <c r="J43" s="39">
-        <v>1</v>
-      </c>
-      <c r="K43" s="39">
-        <v>1</v>
-      </c>
-      <c r="L43" s="39">
-        <v>1</v>
-      </c>
-      <c r="M43" s="39">
-        <v>1</v>
-      </c>
-      <c r="N43" s="39">
-        <v>1</v>
-      </c>
-      <c r="O43" s="40">
+      <c r="B43" s="40"/>
+      <c r="C43" s="34">
+        <v>1</v>
+      </c>
+      <c r="D43" s="34">
+        <v>1</v>
+      </c>
+      <c r="E43" s="34">
+        <v>1</v>
+      </c>
+      <c r="F43" s="34">
+        <v>1</v>
+      </c>
+      <c r="G43" s="34">
+        <v>1</v>
+      </c>
+      <c r="H43" s="34">
+        <v>1</v>
+      </c>
+      <c r="I43" s="34">
+        <v>1</v>
+      </c>
+      <c r="J43" s="34">
+        <v>1</v>
+      </c>
+      <c r="K43" s="34">
+        <v>1</v>
+      </c>
+      <c r="L43" s="34">
+        <v>1</v>
+      </c>
+      <c r="M43" s="34">
+        <v>1</v>
+      </c>
+      <c r="N43" s="34">
+        <v>1</v>
+      </c>
+      <c r="O43" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="39">
-        <v>1</v>
-      </c>
-      <c r="D44" s="39">
-        <v>1</v>
-      </c>
-      <c r="E44" s="39">
-        <v>1</v>
-      </c>
-      <c r="F44" s="39">
-        <v>1</v>
-      </c>
-      <c r="G44" s="39">
-        <v>1</v>
-      </c>
-      <c r="H44" s="39">
-        <v>1</v>
-      </c>
-      <c r="I44" s="39">
-        <v>1</v>
-      </c>
-      <c r="J44" s="39">
-        <v>1</v>
-      </c>
-      <c r="K44" s="39">
-        <v>1</v>
-      </c>
-      <c r="L44" s="39">
-        <v>1</v>
-      </c>
-      <c r="M44" s="39">
-        <v>1</v>
-      </c>
-      <c r="N44" s="39">
-        <v>1</v>
-      </c>
-      <c r="O44" s="40">
+      <c r="B44" s="40"/>
+      <c r="C44" s="34">
+        <v>1</v>
+      </c>
+      <c r="D44" s="34">
+        <v>1</v>
+      </c>
+      <c r="E44" s="34">
+        <v>1</v>
+      </c>
+      <c r="F44" s="34">
+        <v>1</v>
+      </c>
+      <c r="G44" s="34">
+        <v>1</v>
+      </c>
+      <c r="H44" s="34">
+        <v>1</v>
+      </c>
+      <c r="I44" s="34">
+        <v>1</v>
+      </c>
+      <c r="J44" s="34">
+        <v>1</v>
+      </c>
+      <c r="K44" s="34">
+        <v>1</v>
+      </c>
+      <c r="L44" s="34">
+        <v>1</v>
+      </c>
+      <c r="M44" s="34">
+        <v>1</v>
+      </c>
+      <c r="N44" s="34">
+        <v>1</v>
+      </c>
+      <c r="O44" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="39">
+      <c r="B45" s="40"/>
+      <c r="C45" s="34">
         <f t="shared" ref="C45:N45" si="17">C29*0.3</f>
         <v>320.39999999999998</v>
       </c>
-      <c r="D45" s="39">
+      <c r="D45" s="34">
         <f t="shared" si="17"/>
         <v>288.35999999999996</v>
       </c>
-      <c r="E45" s="39">
+      <c r="E45" s="34">
         <f t="shared" si="17"/>
         <v>384.47999999999996</v>
       </c>
-      <c r="F45" s="39">
+      <c r="F45" s="34">
         <f t="shared" si="17"/>
         <v>448.56</v>
       </c>
-      <c r="G45" s="39">
+      <c r="G45" s="34">
         <f t="shared" si="17"/>
         <v>512.64</v>
       </c>
-      <c r="H45" s="39">
+      <c r="H45" s="34">
         <f t="shared" si="17"/>
         <v>480.59999999999997</v>
       </c>
-      <c r="I45" s="39">
+      <c r="I45" s="34">
         <f t="shared" si="17"/>
         <v>576.71999999999991</v>
       </c>
-      <c r="J45" s="39">
+      <c r="J45" s="34">
         <f t="shared" si="17"/>
         <v>544.67999999999995</v>
       </c>
-      <c r="K45" s="39">
+      <c r="K45" s="34">
         <f t="shared" si="17"/>
         <v>416.51999999999992</v>
       </c>
-      <c r="L45" s="39">
+      <c r="L45" s="34">
         <f t="shared" si="17"/>
         <v>480.59999999999997</v>
       </c>
-      <c r="M45" s="39">
+      <c r="M45" s="34">
         <f t="shared" si="17"/>
         <v>608.76</v>
       </c>
-      <c r="N45" s="39">
+      <c r="N45" s="34">
         <f t="shared" si="17"/>
         <v>736.91999999999985</v>
       </c>
-      <c r="O45" s="40">
+      <c r="O45" s="39">
         <f t="shared" si="16"/>
         <v>5799.24</v>
       </c>
@@ -6166,44 +6220,44 @@
       <c r="A46" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="39">
-        <v>1</v>
-      </c>
-      <c r="D46" s="39">
-        <v>1</v>
-      </c>
-      <c r="E46" s="39">
-        <v>1</v>
-      </c>
-      <c r="F46" s="39">
-        <v>1</v>
-      </c>
-      <c r="G46" s="39">
-        <v>1</v>
-      </c>
-      <c r="H46" s="39">
-        <v>1</v>
-      </c>
-      <c r="I46" s="39">
-        <v>1</v>
-      </c>
-      <c r="J46" s="39">
-        <v>1</v>
-      </c>
-      <c r="K46" s="39">
-        <v>1</v>
-      </c>
-      <c r="L46" s="39">
-        <v>1</v>
-      </c>
-      <c r="M46" s="39">
-        <v>1</v>
-      </c>
-      <c r="N46" s="39">
-        <v>1</v>
-      </c>
-      <c r="O46" s="40">
+      <c r="B46" s="40"/>
+      <c r="C46" s="34">
+        <v>1</v>
+      </c>
+      <c r="D46" s="34">
+        <v>1</v>
+      </c>
+      <c r="E46" s="34">
+        <v>1</v>
+      </c>
+      <c r="F46" s="34">
+        <v>1</v>
+      </c>
+      <c r="G46" s="34">
+        <v>1</v>
+      </c>
+      <c r="H46" s="34">
+        <v>1</v>
+      </c>
+      <c r="I46" s="34">
+        <v>1</v>
+      </c>
+      <c r="J46" s="34">
+        <v>1</v>
+      </c>
+      <c r="K46" s="34">
+        <v>1</v>
+      </c>
+      <c r="L46" s="34">
+        <v>1</v>
+      </c>
+      <c r="M46" s="34">
+        <v>1</v>
+      </c>
+      <c r="N46" s="34">
+        <v>1</v>
+      </c>
+      <c r="O46" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -6212,44 +6266,44 @@
       <c r="A47" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="39">
-        <v>1</v>
-      </c>
-      <c r="D47" s="39">
-        <v>1</v>
-      </c>
-      <c r="E47" s="39">
-        <v>1</v>
-      </c>
-      <c r="F47" s="39">
-        <v>1</v>
-      </c>
-      <c r="G47" s="39">
-        <v>1</v>
-      </c>
-      <c r="H47" s="39">
-        <v>1</v>
-      </c>
-      <c r="I47" s="39">
-        <v>1</v>
-      </c>
-      <c r="J47" s="39">
-        <v>1</v>
-      </c>
-      <c r="K47" s="39">
-        <v>1</v>
-      </c>
-      <c r="L47" s="39">
-        <v>1</v>
-      </c>
-      <c r="M47" s="39">
-        <v>1</v>
-      </c>
-      <c r="N47" s="39">
-        <v>1</v>
-      </c>
-      <c r="O47" s="40">
+      <c r="B47" s="40"/>
+      <c r="C47" s="34">
+        <v>1</v>
+      </c>
+      <c r="D47" s="34">
+        <v>1</v>
+      </c>
+      <c r="E47" s="34">
+        <v>1</v>
+      </c>
+      <c r="F47" s="34">
+        <v>1</v>
+      </c>
+      <c r="G47" s="34">
+        <v>1</v>
+      </c>
+      <c r="H47" s="34">
+        <v>1</v>
+      </c>
+      <c r="I47" s="34">
+        <v>1</v>
+      </c>
+      <c r="J47" s="34">
+        <v>1</v>
+      </c>
+      <c r="K47" s="34">
+        <v>1</v>
+      </c>
+      <c r="L47" s="34">
+        <v>1</v>
+      </c>
+      <c r="M47" s="34">
+        <v>1</v>
+      </c>
+      <c r="N47" s="34">
+        <v>1</v>
+      </c>
+      <c r="O47" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -6258,44 +6312,44 @@
       <c r="A48" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="39">
-        <v>1</v>
-      </c>
-      <c r="D48" s="39">
-        <v>1</v>
-      </c>
-      <c r="E48" s="39">
-        <v>1</v>
-      </c>
-      <c r="F48" s="39">
-        <v>1</v>
-      </c>
-      <c r="G48" s="39">
-        <v>1</v>
-      </c>
-      <c r="H48" s="39">
-        <v>1</v>
-      </c>
-      <c r="I48" s="39">
-        <v>1</v>
-      </c>
-      <c r="J48" s="39">
-        <v>1</v>
-      </c>
-      <c r="K48" s="39">
-        <v>1</v>
-      </c>
-      <c r="L48" s="39">
-        <v>1</v>
-      </c>
-      <c r="M48" s="39">
-        <v>1</v>
-      </c>
-      <c r="N48" s="39">
-        <v>1</v>
-      </c>
-      <c r="O48" s="40">
+      <c r="B48" s="40"/>
+      <c r="C48" s="34">
+        <v>1</v>
+      </c>
+      <c r="D48" s="34">
+        <v>1</v>
+      </c>
+      <c r="E48" s="34">
+        <v>1</v>
+      </c>
+      <c r="F48" s="34">
+        <v>1</v>
+      </c>
+      <c r="G48" s="34">
+        <v>1</v>
+      </c>
+      <c r="H48" s="34">
+        <v>1</v>
+      </c>
+      <c r="I48" s="34">
+        <v>1</v>
+      </c>
+      <c r="J48" s="34">
+        <v>1</v>
+      </c>
+      <c r="K48" s="34">
+        <v>1</v>
+      </c>
+      <c r="L48" s="34">
+        <v>1</v>
+      </c>
+      <c r="M48" s="34">
+        <v>1</v>
+      </c>
+      <c r="N48" s="34">
+        <v>1</v>
+      </c>
+      <c r="O48" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -6304,44 +6358,44 @@
       <c r="A49" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="39">
-        <v>1</v>
-      </c>
-      <c r="D49" s="39">
-        <v>1</v>
-      </c>
-      <c r="E49" s="39">
-        <v>1</v>
-      </c>
-      <c r="F49" s="39">
-        <v>1</v>
-      </c>
-      <c r="G49" s="39">
-        <v>1</v>
-      </c>
-      <c r="H49" s="39">
-        <v>1</v>
-      </c>
-      <c r="I49" s="39">
-        <v>1</v>
-      </c>
-      <c r="J49" s="39">
-        <v>1</v>
-      </c>
-      <c r="K49" s="39">
-        <v>1</v>
-      </c>
-      <c r="L49" s="39">
-        <v>1</v>
-      </c>
-      <c r="M49" s="39">
-        <v>1</v>
-      </c>
-      <c r="N49" s="39">
-        <v>1</v>
-      </c>
-      <c r="O49" s="40">
+      <c r="B49" s="40"/>
+      <c r="C49" s="34">
+        <v>1</v>
+      </c>
+      <c r="D49" s="34">
+        <v>1</v>
+      </c>
+      <c r="E49" s="34">
+        <v>1</v>
+      </c>
+      <c r="F49" s="34">
+        <v>1</v>
+      </c>
+      <c r="G49" s="34">
+        <v>1</v>
+      </c>
+      <c r="H49" s="34">
+        <v>1</v>
+      </c>
+      <c r="I49" s="34">
+        <v>1</v>
+      </c>
+      <c r="J49" s="34">
+        <v>1</v>
+      </c>
+      <c r="K49" s="34">
+        <v>1</v>
+      </c>
+      <c r="L49" s="34">
+        <v>1</v>
+      </c>
+      <c r="M49" s="34">
+        <v>1</v>
+      </c>
+      <c r="N49" s="34">
+        <v>1</v>
+      </c>
+      <c r="O49" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -6350,44 +6404,44 @@
       <c r="A50" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="39">
-        <v>1</v>
-      </c>
-      <c r="D50" s="39">
-        <v>1</v>
-      </c>
-      <c r="E50" s="39">
-        <v>1</v>
-      </c>
-      <c r="F50" s="39">
-        <v>1</v>
-      </c>
-      <c r="G50" s="39">
-        <v>1</v>
-      </c>
-      <c r="H50" s="39">
-        <v>1</v>
-      </c>
-      <c r="I50" s="39">
-        <v>1</v>
-      </c>
-      <c r="J50" s="39">
-        <v>1</v>
-      </c>
-      <c r="K50" s="39">
-        <v>1</v>
-      </c>
-      <c r="L50" s="39">
-        <v>1</v>
-      </c>
-      <c r="M50" s="39">
-        <v>1</v>
-      </c>
-      <c r="N50" s="39">
-        <v>1</v>
-      </c>
-      <c r="O50" s="40">
+      <c r="B50" s="40"/>
+      <c r="C50" s="34">
+        <v>1</v>
+      </c>
+      <c r="D50" s="34">
+        <v>1</v>
+      </c>
+      <c r="E50" s="34">
+        <v>1</v>
+      </c>
+      <c r="F50" s="34">
+        <v>1</v>
+      </c>
+      <c r="G50" s="34">
+        <v>1</v>
+      </c>
+      <c r="H50" s="34">
+        <v>1</v>
+      </c>
+      <c r="I50" s="34">
+        <v>1</v>
+      </c>
+      <c r="J50" s="34">
+        <v>1</v>
+      </c>
+      <c r="K50" s="34">
+        <v>1</v>
+      </c>
+      <c r="L50" s="34">
+        <v>1</v>
+      </c>
+      <c r="M50" s="34">
+        <v>1</v>
+      </c>
+      <c r="N50" s="34">
+        <v>1</v>
+      </c>
+      <c r="O50" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -6396,44 +6450,44 @@
       <c r="A51" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="39">
-        <v>1</v>
-      </c>
-      <c r="D51" s="39">
-        <v>1</v>
-      </c>
-      <c r="E51" s="39">
-        <v>1</v>
-      </c>
-      <c r="F51" s="39">
-        <v>1</v>
-      </c>
-      <c r="G51" s="39">
-        <v>1</v>
-      </c>
-      <c r="H51" s="39">
-        <v>1</v>
-      </c>
-      <c r="I51" s="39">
-        <v>1</v>
-      </c>
-      <c r="J51" s="39">
-        <v>1</v>
-      </c>
-      <c r="K51" s="39">
-        <v>1</v>
-      </c>
-      <c r="L51" s="39">
-        <v>1</v>
-      </c>
-      <c r="M51" s="39">
-        <v>1</v>
-      </c>
-      <c r="N51" s="39">
-        <v>1</v>
-      </c>
-      <c r="O51" s="40">
+      <c r="B51" s="40"/>
+      <c r="C51" s="34">
+        <v>1</v>
+      </c>
+      <c r="D51" s="34">
+        <v>1</v>
+      </c>
+      <c r="E51" s="34">
+        <v>1</v>
+      </c>
+      <c r="F51" s="34">
+        <v>1</v>
+      </c>
+      <c r="G51" s="34">
+        <v>1</v>
+      </c>
+      <c r="H51" s="34">
+        <v>1</v>
+      </c>
+      <c r="I51" s="34">
+        <v>1</v>
+      </c>
+      <c r="J51" s="34">
+        <v>1</v>
+      </c>
+      <c r="K51" s="34">
+        <v>1</v>
+      </c>
+      <c r="L51" s="34">
+        <v>1</v>
+      </c>
+      <c r="M51" s="34">
+        <v>1</v>
+      </c>
+      <c r="N51" s="34">
+        <v>1</v>
+      </c>
+      <c r="O51" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -6442,44 +6496,44 @@
       <c r="A52" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="39">
-        <v>1</v>
-      </c>
-      <c r="D52" s="39">
-        <v>1</v>
-      </c>
-      <c r="E52" s="39">
-        <v>1</v>
-      </c>
-      <c r="F52" s="39">
-        <v>1</v>
-      </c>
-      <c r="G52" s="39">
-        <v>1</v>
-      </c>
-      <c r="H52" s="39">
-        <v>1</v>
-      </c>
-      <c r="I52" s="39">
-        <v>1</v>
-      </c>
-      <c r="J52" s="39">
-        <v>1</v>
-      </c>
-      <c r="K52" s="39">
-        <v>1</v>
-      </c>
-      <c r="L52" s="39">
-        <v>1</v>
-      </c>
-      <c r="M52" s="39">
-        <v>1</v>
-      </c>
-      <c r="N52" s="39">
-        <v>1</v>
-      </c>
-      <c r="O52" s="40">
+      <c r="B52" s="40"/>
+      <c r="C52" s="34">
+        <v>1</v>
+      </c>
+      <c r="D52" s="34">
+        <v>1</v>
+      </c>
+      <c r="E52" s="34">
+        <v>1</v>
+      </c>
+      <c r="F52" s="34">
+        <v>1</v>
+      </c>
+      <c r="G52" s="34">
+        <v>1</v>
+      </c>
+      <c r="H52" s="34">
+        <v>1</v>
+      </c>
+      <c r="I52" s="34">
+        <v>1</v>
+      </c>
+      <c r="J52" s="34">
+        <v>1</v>
+      </c>
+      <c r="K52" s="34">
+        <v>1</v>
+      </c>
+      <c r="L52" s="34">
+        <v>1</v>
+      </c>
+      <c r="M52" s="34">
+        <v>1</v>
+      </c>
+      <c r="N52" s="34">
+        <v>1</v>
+      </c>
+      <c r="O52" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -6488,44 +6542,44 @@
       <c r="A53" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="39">
-        <v>1</v>
-      </c>
-      <c r="D53" s="39">
-        <v>1</v>
-      </c>
-      <c r="E53" s="39">
-        <v>1</v>
-      </c>
-      <c r="F53" s="39">
-        <v>1</v>
-      </c>
-      <c r="G53" s="39">
-        <v>1</v>
-      </c>
-      <c r="H53" s="39">
-        <v>1</v>
-      </c>
-      <c r="I53" s="39">
-        <v>1</v>
-      </c>
-      <c r="J53" s="39">
-        <v>1</v>
-      </c>
-      <c r="K53" s="39">
-        <v>1</v>
-      </c>
-      <c r="L53" s="39">
-        <v>1</v>
-      </c>
-      <c r="M53" s="39">
-        <v>1</v>
-      </c>
-      <c r="N53" s="39">
-        <v>1</v>
-      </c>
-      <c r="O53" s="40">
+      <c r="B53" s="40"/>
+      <c r="C53" s="34">
+        <v>1</v>
+      </c>
+      <c r="D53" s="34">
+        <v>1</v>
+      </c>
+      <c r="E53" s="34">
+        <v>1</v>
+      </c>
+      <c r="F53" s="34">
+        <v>1</v>
+      </c>
+      <c r="G53" s="34">
+        <v>1</v>
+      </c>
+      <c r="H53" s="34">
+        <v>1</v>
+      </c>
+      <c r="I53" s="34">
+        <v>1</v>
+      </c>
+      <c r="J53" s="34">
+        <v>1</v>
+      </c>
+      <c r="K53" s="34">
+        <v>1</v>
+      </c>
+      <c r="L53" s="34">
+        <v>1</v>
+      </c>
+      <c r="M53" s="34">
+        <v>1</v>
+      </c>
+      <c r="N53" s="34">
+        <v>1</v>
+      </c>
+      <c r="O53" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -6534,44 +6588,44 @@
       <c r="A54" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="39">
-        <v>1</v>
-      </c>
-      <c r="D54" s="39">
-        <v>1</v>
-      </c>
-      <c r="E54" s="39">
-        <v>1</v>
-      </c>
-      <c r="F54" s="39">
-        <v>1</v>
-      </c>
-      <c r="G54" s="39">
-        <v>1</v>
-      </c>
-      <c r="H54" s="39">
-        <v>1</v>
-      </c>
-      <c r="I54" s="39">
-        <v>1</v>
-      </c>
-      <c r="J54" s="39">
-        <v>1</v>
-      </c>
-      <c r="K54" s="39">
-        <v>1</v>
-      </c>
-      <c r="L54" s="39">
-        <v>1</v>
-      </c>
-      <c r="M54" s="39">
-        <v>1</v>
-      </c>
-      <c r="N54" s="39">
-        <v>1</v>
-      </c>
-      <c r="O54" s="40">
+      <c r="B54" s="40"/>
+      <c r="C54" s="34">
+        <v>1</v>
+      </c>
+      <c r="D54" s="34">
+        <v>1</v>
+      </c>
+      <c r="E54" s="34">
+        <v>1</v>
+      </c>
+      <c r="F54" s="34">
+        <v>1</v>
+      </c>
+      <c r="G54" s="34">
+        <v>1</v>
+      </c>
+      <c r="H54" s="34">
+        <v>1</v>
+      </c>
+      <c r="I54" s="34">
+        <v>1</v>
+      </c>
+      <c r="J54" s="34">
+        <v>1</v>
+      </c>
+      <c r="K54" s="34">
+        <v>1</v>
+      </c>
+      <c r="L54" s="34">
+        <v>1</v>
+      </c>
+      <c r="M54" s="34">
+        <v>1</v>
+      </c>
+      <c r="N54" s="34">
+        <v>1</v>
+      </c>
+      <c r="O54" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -6580,44 +6634,44 @@
       <c r="A55" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="39">
-        <v>1</v>
-      </c>
-      <c r="D55" s="39">
-        <v>1</v>
-      </c>
-      <c r="E55" s="39">
-        <v>1</v>
-      </c>
-      <c r="F55" s="39">
-        <v>1</v>
-      </c>
-      <c r="G55" s="39">
-        <v>1</v>
-      </c>
-      <c r="H55" s="39">
-        <v>1</v>
-      </c>
-      <c r="I55" s="39">
-        <v>1</v>
-      </c>
-      <c r="J55" s="39">
-        <v>1</v>
-      </c>
-      <c r="K55" s="39">
-        <v>1</v>
-      </c>
-      <c r="L55" s="39">
-        <v>1</v>
-      </c>
-      <c r="M55" s="39">
-        <v>1</v>
-      </c>
-      <c r="N55" s="39">
-        <v>1</v>
-      </c>
-      <c r="O55" s="40">
+      <c r="B55" s="40"/>
+      <c r="C55" s="34">
+        <v>1</v>
+      </c>
+      <c r="D55" s="34">
+        <v>1</v>
+      </c>
+      <c r="E55" s="34">
+        <v>1</v>
+      </c>
+      <c r="F55" s="34">
+        <v>1</v>
+      </c>
+      <c r="G55" s="34">
+        <v>1</v>
+      </c>
+      <c r="H55" s="34">
+        <v>1</v>
+      </c>
+      <c r="I55" s="34">
+        <v>1</v>
+      </c>
+      <c r="J55" s="34">
+        <v>1</v>
+      </c>
+      <c r="K55" s="34">
+        <v>1</v>
+      </c>
+      <c r="L55" s="34">
+        <v>1</v>
+      </c>
+      <c r="M55" s="34">
+        <v>1</v>
+      </c>
+      <c r="N55" s="34">
+        <v>1</v>
+      </c>
+      <c r="O55" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -6626,44 +6680,44 @@
       <c r="A56" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="39">
-        <v>1</v>
-      </c>
-      <c r="D56" s="39">
-        <v>1</v>
-      </c>
-      <c r="E56" s="39">
-        <v>1</v>
-      </c>
-      <c r="F56" s="39">
-        <v>1</v>
-      </c>
-      <c r="G56" s="39">
-        <v>1</v>
-      </c>
-      <c r="H56" s="39">
-        <v>1</v>
-      </c>
-      <c r="I56" s="39">
-        <v>1</v>
-      </c>
-      <c r="J56" s="39">
-        <v>1</v>
-      </c>
-      <c r="K56" s="39">
-        <v>1</v>
-      </c>
-      <c r="L56" s="39">
-        <v>1</v>
-      </c>
-      <c r="M56" s="39">
-        <v>1</v>
-      </c>
-      <c r="N56" s="39">
-        <v>1</v>
-      </c>
-      <c r="O56" s="40">
+      <c r="B56" s="40"/>
+      <c r="C56" s="34">
+        <v>1</v>
+      </c>
+      <c r="D56" s="34">
+        <v>1</v>
+      </c>
+      <c r="E56" s="34">
+        <v>1</v>
+      </c>
+      <c r="F56" s="34">
+        <v>1</v>
+      </c>
+      <c r="G56" s="34">
+        <v>1</v>
+      </c>
+      <c r="H56" s="34">
+        <v>1</v>
+      </c>
+      <c r="I56" s="34">
+        <v>1</v>
+      </c>
+      <c r="J56" s="34">
+        <v>1</v>
+      </c>
+      <c r="K56" s="34">
+        <v>1</v>
+      </c>
+      <c r="L56" s="34">
+        <v>1</v>
+      </c>
+      <c r="M56" s="34">
+        <v>1</v>
+      </c>
+      <c r="N56" s="34">
+        <v>1</v>
+      </c>
+      <c r="O56" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -6672,44 +6726,44 @@
       <c r="A57" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="39">
-        <v>1</v>
-      </c>
-      <c r="D57" s="39">
-        <v>1</v>
-      </c>
-      <c r="E57" s="39">
-        <v>1</v>
-      </c>
-      <c r="F57" s="39">
-        <v>1</v>
-      </c>
-      <c r="G57" s="39">
-        <v>1</v>
-      </c>
-      <c r="H57" s="39">
-        <v>1</v>
-      </c>
-      <c r="I57" s="39">
-        <v>1</v>
-      </c>
-      <c r="J57" s="39">
-        <v>1</v>
-      </c>
-      <c r="K57" s="39">
-        <v>1</v>
-      </c>
-      <c r="L57" s="39">
-        <v>1</v>
-      </c>
-      <c r="M57" s="39">
-        <v>1</v>
-      </c>
-      <c r="N57" s="39">
-        <v>1</v>
-      </c>
-      <c r="O57" s="40">
+      <c r="B57" s="40"/>
+      <c r="C57" s="34">
+        <v>1</v>
+      </c>
+      <c r="D57" s="34">
+        <v>1</v>
+      </c>
+      <c r="E57" s="34">
+        <v>1</v>
+      </c>
+      <c r="F57" s="34">
+        <v>1</v>
+      </c>
+      <c r="G57" s="34">
+        <v>1</v>
+      </c>
+      <c r="H57" s="34">
+        <v>1</v>
+      </c>
+      <c r="I57" s="34">
+        <v>1</v>
+      </c>
+      <c r="J57" s="34">
+        <v>1</v>
+      </c>
+      <c r="K57" s="34">
+        <v>1</v>
+      </c>
+      <c r="L57" s="34">
+        <v>1</v>
+      </c>
+      <c r="M57" s="34">
+        <v>1</v>
+      </c>
+      <c r="N57" s="34">
+        <v>1</v>
+      </c>
+      <c r="O57" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -6718,44 +6772,44 @@
       <c r="A58" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="39">
-        <v>1</v>
-      </c>
-      <c r="D58" s="39">
-        <v>1</v>
-      </c>
-      <c r="E58" s="39">
-        <v>1</v>
-      </c>
-      <c r="F58" s="39">
-        <v>1</v>
-      </c>
-      <c r="G58" s="39">
-        <v>1</v>
-      </c>
-      <c r="H58" s="39">
-        <v>1</v>
-      </c>
-      <c r="I58" s="39">
-        <v>1</v>
-      </c>
-      <c r="J58" s="39">
-        <v>1</v>
-      </c>
-      <c r="K58" s="39">
-        <v>1</v>
-      </c>
-      <c r="L58" s="39">
-        <v>1</v>
-      </c>
-      <c r="M58" s="39">
-        <v>1</v>
-      </c>
-      <c r="N58" s="39">
-        <v>1</v>
-      </c>
-      <c r="O58" s="40">
+      <c r="B58" s="40"/>
+      <c r="C58" s="34">
+        <v>1</v>
+      </c>
+      <c r="D58" s="34">
+        <v>1</v>
+      </c>
+      <c r="E58" s="34">
+        <v>1</v>
+      </c>
+      <c r="F58" s="34">
+        <v>1</v>
+      </c>
+      <c r="G58" s="34">
+        <v>1</v>
+      </c>
+      <c r="H58" s="34">
+        <v>1</v>
+      </c>
+      <c r="I58" s="34">
+        <v>1</v>
+      </c>
+      <c r="J58" s="34">
+        <v>1</v>
+      </c>
+      <c r="K58" s="34">
+        <v>1</v>
+      </c>
+      <c r="L58" s="34">
+        <v>1</v>
+      </c>
+      <c r="M58" s="34">
+        <v>1</v>
+      </c>
+      <c r="N58" s="34">
+        <v>1</v>
+      </c>
+      <c r="O58" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -6764,44 +6818,44 @@
       <c r="A59" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="39">
-        <v>1</v>
-      </c>
-      <c r="D59" s="39">
-        <v>1</v>
-      </c>
-      <c r="E59" s="39">
-        <v>1</v>
-      </c>
-      <c r="F59" s="39">
-        <v>1</v>
-      </c>
-      <c r="G59" s="39">
-        <v>1</v>
-      </c>
-      <c r="H59" s="39">
-        <v>1</v>
-      </c>
-      <c r="I59" s="39">
-        <v>1</v>
-      </c>
-      <c r="J59" s="39">
-        <v>1</v>
-      </c>
-      <c r="K59" s="39">
-        <v>1</v>
-      </c>
-      <c r="L59" s="39">
-        <v>1</v>
-      </c>
-      <c r="M59" s="39">
-        <v>1</v>
-      </c>
-      <c r="N59" s="39">
-        <v>1</v>
-      </c>
-      <c r="O59" s="40">
+      <c r="B59" s="40"/>
+      <c r="C59" s="34">
+        <v>1</v>
+      </c>
+      <c r="D59" s="34">
+        <v>1</v>
+      </c>
+      <c r="E59" s="34">
+        <v>1</v>
+      </c>
+      <c r="F59" s="34">
+        <v>1</v>
+      </c>
+      <c r="G59" s="34">
+        <v>1</v>
+      </c>
+      <c r="H59" s="34">
+        <v>1</v>
+      </c>
+      <c r="I59" s="34">
+        <v>1</v>
+      </c>
+      <c r="J59" s="34">
+        <v>1</v>
+      </c>
+      <c r="K59" s="34">
+        <v>1</v>
+      </c>
+      <c r="L59" s="34">
+        <v>1</v>
+      </c>
+      <c r="M59" s="34">
+        <v>1</v>
+      </c>
+      <c r="N59" s="34">
+        <v>1</v>
+      </c>
+      <c r="O59" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -6810,44 +6864,44 @@
       <c r="A60" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="39">
-        <v>1</v>
-      </c>
-      <c r="D60" s="39">
-        <v>1</v>
-      </c>
-      <c r="E60" s="39">
-        <v>1</v>
-      </c>
-      <c r="F60" s="39">
-        <v>1</v>
-      </c>
-      <c r="G60" s="39">
-        <v>1</v>
-      </c>
-      <c r="H60" s="39">
-        <v>1</v>
-      </c>
-      <c r="I60" s="39">
-        <v>1</v>
-      </c>
-      <c r="J60" s="39">
-        <v>1</v>
-      </c>
-      <c r="K60" s="39">
-        <v>1</v>
-      </c>
-      <c r="L60" s="39">
-        <v>1</v>
-      </c>
-      <c r="M60" s="39">
-        <v>1</v>
-      </c>
-      <c r="N60" s="39">
-        <v>1</v>
-      </c>
-      <c r="O60" s="40">
+      <c r="B60" s="40"/>
+      <c r="C60" s="34">
+        <v>1</v>
+      </c>
+      <c r="D60" s="34">
+        <v>1</v>
+      </c>
+      <c r="E60" s="34">
+        <v>1</v>
+      </c>
+      <c r="F60" s="34">
+        <v>1</v>
+      </c>
+      <c r="G60" s="34">
+        <v>1</v>
+      </c>
+      <c r="H60" s="34">
+        <v>1</v>
+      </c>
+      <c r="I60" s="34">
+        <v>1</v>
+      </c>
+      <c r="J60" s="34">
+        <v>1</v>
+      </c>
+      <c r="K60" s="34">
+        <v>1</v>
+      </c>
+      <c r="L60" s="34">
+        <v>1</v>
+      </c>
+      <c r="M60" s="34">
+        <v>1</v>
+      </c>
+      <c r="N60" s="34">
+        <v>1</v>
+      </c>
+      <c r="O60" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -6856,44 +6910,44 @@
       <c r="A61" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="39">
-        <v>1</v>
-      </c>
-      <c r="D61" s="39">
-        <v>1</v>
-      </c>
-      <c r="E61" s="39">
-        <v>1</v>
-      </c>
-      <c r="F61" s="39">
-        <v>1</v>
-      </c>
-      <c r="G61" s="39">
-        <v>1</v>
-      </c>
-      <c r="H61" s="39">
-        <v>1</v>
-      </c>
-      <c r="I61" s="39">
-        <v>1</v>
-      </c>
-      <c r="J61" s="39">
-        <v>1</v>
-      </c>
-      <c r="K61" s="39">
-        <v>1</v>
-      </c>
-      <c r="L61" s="39">
-        <v>1</v>
-      </c>
-      <c r="M61" s="39">
-        <v>1</v>
-      </c>
-      <c r="N61" s="39">
-        <v>1</v>
-      </c>
-      <c r="O61" s="40">
+      <c r="B61" s="40"/>
+      <c r="C61" s="34">
+        <v>1</v>
+      </c>
+      <c r="D61" s="34">
+        <v>1</v>
+      </c>
+      <c r="E61" s="34">
+        <v>1</v>
+      </c>
+      <c r="F61" s="34">
+        <v>1</v>
+      </c>
+      <c r="G61" s="34">
+        <v>1</v>
+      </c>
+      <c r="H61" s="34">
+        <v>1</v>
+      </c>
+      <c r="I61" s="34">
+        <v>1</v>
+      </c>
+      <c r="J61" s="34">
+        <v>1</v>
+      </c>
+      <c r="K61" s="34">
+        <v>1</v>
+      </c>
+      <c r="L61" s="34">
+        <v>1</v>
+      </c>
+      <c r="M61" s="34">
+        <v>1</v>
+      </c>
+      <c r="N61" s="34">
+        <v>1</v>
+      </c>
+      <c r="O61" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -6902,44 +6956,44 @@
       <c r="A62" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="39">
-        <v>1</v>
-      </c>
-      <c r="D62" s="39">
-        <v>1</v>
-      </c>
-      <c r="E62" s="39">
-        <v>1</v>
-      </c>
-      <c r="F62" s="39">
-        <v>1</v>
-      </c>
-      <c r="G62" s="39">
-        <v>1</v>
-      </c>
-      <c r="H62" s="39">
-        <v>1</v>
-      </c>
-      <c r="I62" s="39">
-        <v>1</v>
-      </c>
-      <c r="J62" s="39">
-        <v>1</v>
-      </c>
-      <c r="K62" s="39">
-        <v>1</v>
-      </c>
-      <c r="L62" s="39">
-        <v>1</v>
-      </c>
-      <c r="M62" s="39">
-        <v>1</v>
-      </c>
-      <c r="N62" s="39">
-        <v>1</v>
-      </c>
-      <c r="O62" s="40">
+      <c r="B62" s="40"/>
+      <c r="C62" s="34">
+        <v>1</v>
+      </c>
+      <c r="D62" s="34">
+        <v>1</v>
+      </c>
+      <c r="E62" s="34">
+        <v>1</v>
+      </c>
+      <c r="F62" s="34">
+        <v>1</v>
+      </c>
+      <c r="G62" s="34">
+        <v>1</v>
+      </c>
+      <c r="H62" s="34">
+        <v>1</v>
+      </c>
+      <c r="I62" s="34">
+        <v>1</v>
+      </c>
+      <c r="J62" s="34">
+        <v>1</v>
+      </c>
+      <c r="K62" s="34">
+        <v>1</v>
+      </c>
+      <c r="L62" s="34">
+        <v>1</v>
+      </c>
+      <c r="M62" s="34">
+        <v>1</v>
+      </c>
+      <c r="N62" s="34">
+        <v>1</v>
+      </c>
+      <c r="O62" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -6948,44 +7002,44 @@
       <c r="A63" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="41"/>
-      <c r="C63" s="39">
-        <v>1</v>
-      </c>
-      <c r="D63" s="39">
-        <v>1</v>
-      </c>
-      <c r="E63" s="39">
-        <v>1</v>
-      </c>
-      <c r="F63" s="39">
-        <v>1</v>
-      </c>
-      <c r="G63" s="39">
-        <v>1</v>
-      </c>
-      <c r="H63" s="39">
-        <v>1</v>
-      </c>
-      <c r="I63" s="39">
-        <v>1</v>
-      </c>
-      <c r="J63" s="39">
-        <v>1</v>
-      </c>
-      <c r="K63" s="39">
-        <v>1</v>
-      </c>
-      <c r="L63" s="39">
-        <v>1</v>
-      </c>
-      <c r="M63" s="39">
-        <v>1</v>
-      </c>
-      <c r="N63" s="39">
-        <v>1</v>
-      </c>
-      <c r="O63" s="40">
+      <c r="B63" s="40"/>
+      <c r="C63" s="34">
+        <v>1</v>
+      </c>
+      <c r="D63" s="34">
+        <v>1</v>
+      </c>
+      <c r="E63" s="34">
+        <v>1</v>
+      </c>
+      <c r="F63" s="34">
+        <v>1</v>
+      </c>
+      <c r="G63" s="34">
+        <v>1</v>
+      </c>
+      <c r="H63" s="34">
+        <v>1</v>
+      </c>
+      <c r="I63" s="34">
+        <v>1</v>
+      </c>
+      <c r="J63" s="34">
+        <v>1</v>
+      </c>
+      <c r="K63" s="34">
+        <v>1</v>
+      </c>
+      <c r="L63" s="34">
+        <v>1</v>
+      </c>
+      <c r="M63" s="34">
+        <v>1</v>
+      </c>
+      <c r="N63" s="34">
+        <v>1</v>
+      </c>
+      <c r="O63" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -6994,56 +7048,56 @@
       <c r="A64" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="47">
+      <c r="B64" s="40"/>
+      <c r="C64" s="46">
         <f>SUM(C39:C63)</f>
         <v>1142.4000000000001</v>
       </c>
-      <c r="D64" s="47">
+      <c r="D64" s="46">
         <f t="shared" ref="D64:N64" si="18">SUM(D39:D63)</f>
         <v>1110.3599999999999</v>
       </c>
-      <c r="E64" s="47">
+      <c r="E64" s="46">
         <f t="shared" si="18"/>
         <v>1206.48</v>
       </c>
-      <c r="F64" s="47">
+      <c r="F64" s="46">
         <f t="shared" si="18"/>
         <v>1270.56</v>
       </c>
-      <c r="G64" s="47">
+      <c r="G64" s="46">
         <f t="shared" si="18"/>
         <v>1334.6399999999999</v>
       </c>
-      <c r="H64" s="47">
+      <c r="H64" s="46">
         <f t="shared" si="18"/>
         <v>1302.5999999999999</v>
       </c>
-      <c r="I64" s="47">
+      <c r="I64" s="46">
         <f t="shared" si="18"/>
         <v>1398.7199999999998</v>
       </c>
-      <c r="J64" s="47">
+      <c r="J64" s="46">
         <f t="shared" si="18"/>
         <v>1366.6799999999998</v>
       </c>
-      <c r="K64" s="47">
+      <c r="K64" s="46">
         <f t="shared" si="18"/>
         <v>1438.52</v>
       </c>
-      <c r="L64" s="47">
+      <c r="L64" s="46">
         <f t="shared" si="18"/>
         <v>1502.6</v>
       </c>
-      <c r="M64" s="47">
+      <c r="M64" s="46">
         <f t="shared" si="18"/>
         <v>1630.76</v>
       </c>
-      <c r="N64" s="47">
+      <c r="N64" s="46">
         <f t="shared" si="18"/>
         <v>1758.9199999999998</v>
       </c>
-      <c r="O64" s="40">
+      <c r="O64" s="39">
         <f t="shared" si="16"/>
         <v>16463.240000000002</v>
       </c>
@@ -7052,44 +7106,44 @@
       <c r="A65" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B65" s="41"/>
-      <c r="C65" s="39">
-        <v>1</v>
-      </c>
-      <c r="D65" s="39">
-        <v>1</v>
-      </c>
-      <c r="E65" s="39">
-        <v>1</v>
-      </c>
-      <c r="F65" s="39">
-        <v>1</v>
-      </c>
-      <c r="G65" s="39">
-        <v>1</v>
-      </c>
-      <c r="H65" s="39">
-        <v>1</v>
-      </c>
-      <c r="I65" s="39">
-        <v>1</v>
-      </c>
-      <c r="J65" s="39">
-        <v>1</v>
-      </c>
-      <c r="K65" s="39">
-        <v>1</v>
-      </c>
-      <c r="L65" s="39">
-        <v>1</v>
-      </c>
-      <c r="M65" s="39">
-        <v>1</v>
-      </c>
-      <c r="N65" s="39">
-        <v>1</v>
-      </c>
-      <c r="O65" s="40">
+      <c r="B65" s="40"/>
+      <c r="C65" s="34">
+        <v>1</v>
+      </c>
+      <c r="D65" s="34">
+        <v>1</v>
+      </c>
+      <c r="E65" s="34">
+        <v>1</v>
+      </c>
+      <c r="F65" s="34">
+        <v>1</v>
+      </c>
+      <c r="G65" s="34">
+        <v>1</v>
+      </c>
+      <c r="H65" s="34">
+        <v>1</v>
+      </c>
+      <c r="I65" s="34">
+        <v>1</v>
+      </c>
+      <c r="J65" s="34">
+        <v>1</v>
+      </c>
+      <c r="K65" s="34">
+        <v>1</v>
+      </c>
+      <c r="L65" s="34">
+        <v>1</v>
+      </c>
+      <c r="M65" s="34">
+        <v>1</v>
+      </c>
+      <c r="N65" s="34">
+        <v>1</v>
+      </c>
+      <c r="O65" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -7098,44 +7152,44 @@
       <c r="A66" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="41"/>
-      <c r="C66" s="39">
-        <v>1</v>
-      </c>
-      <c r="D66" s="39">
-        <v>1</v>
-      </c>
-      <c r="E66" s="39">
-        <v>1</v>
-      </c>
-      <c r="F66" s="39">
-        <v>1</v>
-      </c>
-      <c r="G66" s="39">
-        <v>1</v>
-      </c>
-      <c r="H66" s="39">
-        <v>1</v>
-      </c>
-      <c r="I66" s="39">
-        <v>1</v>
-      </c>
-      <c r="J66" s="39">
-        <v>1</v>
-      </c>
-      <c r="K66" s="39">
-        <v>1</v>
-      </c>
-      <c r="L66" s="39">
-        <v>1</v>
-      </c>
-      <c r="M66" s="39">
-        <v>1</v>
-      </c>
-      <c r="N66" s="39">
-        <v>1</v>
-      </c>
-      <c r="O66" s="40">
+      <c r="B66" s="40"/>
+      <c r="C66" s="34">
+        <v>1</v>
+      </c>
+      <c r="D66" s="34">
+        <v>1</v>
+      </c>
+      <c r="E66" s="34">
+        <v>1</v>
+      </c>
+      <c r="F66" s="34">
+        <v>1</v>
+      </c>
+      <c r="G66" s="34">
+        <v>1</v>
+      </c>
+      <c r="H66" s="34">
+        <v>1</v>
+      </c>
+      <c r="I66" s="34">
+        <v>1</v>
+      </c>
+      <c r="J66" s="34">
+        <v>1</v>
+      </c>
+      <c r="K66" s="34">
+        <v>1</v>
+      </c>
+      <c r="L66" s="34">
+        <v>1</v>
+      </c>
+      <c r="M66" s="34">
+        <v>1</v>
+      </c>
+      <c r="N66" s="34">
+        <v>1</v>
+      </c>
+      <c r="O66" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -7144,44 +7198,44 @@
       <c r="A67" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="39">
-        <v>1</v>
-      </c>
-      <c r="D67" s="39">
-        <v>1</v>
-      </c>
-      <c r="E67" s="39">
-        <v>1</v>
-      </c>
-      <c r="F67" s="39">
-        <v>1</v>
-      </c>
-      <c r="G67" s="39">
-        <v>1</v>
-      </c>
-      <c r="H67" s="39">
-        <v>1</v>
-      </c>
-      <c r="I67" s="39">
-        <v>1</v>
-      </c>
-      <c r="J67" s="39">
-        <v>1</v>
-      </c>
-      <c r="K67" s="39">
-        <v>1</v>
-      </c>
-      <c r="L67" s="39">
-        <v>1</v>
-      </c>
-      <c r="M67" s="39">
-        <v>1</v>
-      </c>
-      <c r="N67" s="39">
-        <v>1</v>
-      </c>
-      <c r="O67" s="40">
+      <c r="B67" s="40"/>
+      <c r="C67" s="34">
+        <v>1</v>
+      </c>
+      <c r="D67" s="34">
+        <v>1</v>
+      </c>
+      <c r="E67" s="34">
+        <v>1</v>
+      </c>
+      <c r="F67" s="34">
+        <v>1</v>
+      </c>
+      <c r="G67" s="34">
+        <v>1</v>
+      </c>
+      <c r="H67" s="34">
+        <v>1</v>
+      </c>
+      <c r="I67" s="34">
+        <v>1</v>
+      </c>
+      <c r="J67" s="34">
+        <v>1</v>
+      </c>
+      <c r="K67" s="34">
+        <v>1</v>
+      </c>
+      <c r="L67" s="34">
+        <v>1</v>
+      </c>
+      <c r="M67" s="34">
+        <v>1</v>
+      </c>
+      <c r="N67" s="34">
+        <v>1</v>
+      </c>
+      <c r="O67" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -7190,44 +7244,44 @@
       <c r="A68" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="41"/>
-      <c r="C68" s="39">
-        <v>1</v>
-      </c>
-      <c r="D68" s="39">
-        <v>1</v>
-      </c>
-      <c r="E68" s="39">
-        <v>1</v>
-      </c>
-      <c r="F68" s="39">
-        <v>1</v>
-      </c>
-      <c r="G68" s="39">
-        <v>1</v>
-      </c>
-      <c r="H68" s="39">
-        <v>1</v>
-      </c>
-      <c r="I68" s="39">
-        <v>1</v>
-      </c>
-      <c r="J68" s="39">
-        <v>1</v>
-      </c>
-      <c r="K68" s="39">
-        <v>1</v>
-      </c>
-      <c r="L68" s="39">
-        <v>1</v>
-      </c>
-      <c r="M68" s="39">
-        <v>1</v>
-      </c>
-      <c r="N68" s="39">
-        <v>1</v>
-      </c>
-      <c r="O68" s="40">
+      <c r="B68" s="40"/>
+      <c r="C68" s="34">
+        <v>1</v>
+      </c>
+      <c r="D68" s="34">
+        <v>1</v>
+      </c>
+      <c r="E68" s="34">
+        <v>1</v>
+      </c>
+      <c r="F68" s="34">
+        <v>1</v>
+      </c>
+      <c r="G68" s="34">
+        <v>1</v>
+      </c>
+      <c r="H68" s="34">
+        <v>1</v>
+      </c>
+      <c r="I68" s="34">
+        <v>1</v>
+      </c>
+      <c r="J68" s="34">
+        <v>1</v>
+      </c>
+      <c r="K68" s="34">
+        <v>1</v>
+      </c>
+      <c r="L68" s="34">
+        <v>1</v>
+      </c>
+      <c r="M68" s="34">
+        <v>1</v>
+      </c>
+      <c r="N68" s="34">
+        <v>1</v>
+      </c>
+      <c r="O68" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
@@ -7236,163 +7290,163 @@
       <c r="A69" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B69" s="41"/>
-      <c r="C69" s="39">
-        <v>1</v>
-      </c>
-      <c r="D69" s="39">
-        <v>1</v>
-      </c>
-      <c r="E69" s="39">
-        <v>1</v>
-      </c>
-      <c r="F69" s="39">
-        <v>1</v>
-      </c>
-      <c r="G69" s="39">
-        <v>1</v>
-      </c>
-      <c r="H69" s="39">
-        <v>1</v>
-      </c>
-      <c r="I69" s="39">
-        <v>1</v>
-      </c>
-      <c r="J69" s="39">
-        <v>1</v>
-      </c>
-      <c r="K69" s="39">
-        <v>1</v>
-      </c>
-      <c r="L69" s="39">
-        <v>1</v>
-      </c>
-      <c r="M69" s="39">
-        <v>1</v>
-      </c>
-      <c r="N69" s="39">
-        <v>1</v>
-      </c>
-      <c r="O69" s="40">
+      <c r="B69" s="40"/>
+      <c r="C69" s="34">
+        <v>1</v>
+      </c>
+      <c r="D69" s="34">
+        <v>1</v>
+      </c>
+      <c r="E69" s="34">
+        <v>1</v>
+      </c>
+      <c r="F69" s="34">
+        <v>1</v>
+      </c>
+      <c r="G69" s="34">
+        <v>1</v>
+      </c>
+      <c r="H69" s="34">
+        <v>1</v>
+      </c>
+      <c r="I69" s="34">
+        <v>1</v>
+      </c>
+      <c r="J69" s="34">
+        <v>1</v>
+      </c>
+      <c r="K69" s="34">
+        <v>1</v>
+      </c>
+      <c r="L69" s="34">
+        <v>1</v>
+      </c>
+      <c r="M69" s="34">
+        <v>1</v>
+      </c>
+      <c r="N69" s="34">
+        <v>1</v>
+      </c>
+      <c r="O69" s="39">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B70" s="48"/>
-      <c r="C70" s="47">
+      <c r="B70" s="47"/>
+      <c r="C70" s="46">
         <f>C64-SUM(C65:C69)</f>
         <v>1137.4000000000001</v>
       </c>
-      <c r="D70" s="47">
+      <c r="D70" s="46">
         <f t="shared" ref="D70:N70" si="19">D64-SUM(D65:D69)</f>
         <v>1105.3599999999999</v>
       </c>
-      <c r="E70" s="47">
+      <c r="E70" s="46">
         <f t="shared" si="19"/>
         <v>1201.48</v>
       </c>
-      <c r="F70" s="47">
+      <c r="F70" s="46">
         <f t="shared" si="19"/>
         <v>1265.56</v>
       </c>
-      <c r="G70" s="47">
+      <c r="G70" s="46">
         <f t="shared" si="19"/>
         <v>1329.6399999999999</v>
       </c>
-      <c r="H70" s="47">
+      <c r="H70" s="46">
         <f t="shared" si="19"/>
         <v>1297.5999999999999</v>
       </c>
-      <c r="I70" s="47">
+      <c r="I70" s="46">
         <f t="shared" si="19"/>
         <v>1393.7199999999998</v>
       </c>
-      <c r="J70" s="47">
+      <c r="J70" s="46">
         <f t="shared" si="19"/>
         <v>1361.6799999999998</v>
       </c>
-      <c r="K70" s="47">
+      <c r="K70" s="46">
         <f t="shared" si="19"/>
         <v>1433.52</v>
       </c>
-      <c r="L70" s="47">
+      <c r="L70" s="46">
         <f t="shared" si="19"/>
         <v>1497.6</v>
       </c>
-      <c r="M70" s="47">
+      <c r="M70" s="46">
         <f t="shared" si="19"/>
         <v>1625.76</v>
       </c>
-      <c r="N70" s="47">
+      <c r="N70" s="46">
         <f t="shared" si="19"/>
         <v>1753.9199999999998</v>
       </c>
-      <c r="O70" s="40">
+      <c r="O70" s="39">
         <f t="shared" si="16"/>
         <v>16403.240000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="49">
+      <c r="B71" s="48">
         <f t="shared" ref="B71:N71" si="20">B36-B70</f>
         <v>50</v>
       </c>
-      <c r="C71" s="49">
+      <c r="C71" s="48">
         <f t="shared" si="20"/>
         <v>-20.141666666666652</v>
       </c>
-      <c r="D71" s="49">
+      <c r="D71" s="48">
         <f t="shared" si="20"/>
         <v>-164.96916666666664</v>
       </c>
-      <c r="E71" s="49">
+      <c r="E71" s="48">
         <f t="shared" si="20"/>
         <v>-85.739166666666733</v>
       </c>
-      <c r="F71" s="49">
+      <c r="F71" s="48">
         <f t="shared" si="20"/>
         <v>142.86249999999995</v>
       </c>
-      <c r="G71" s="49">
+      <c r="G71" s="48">
         <f t="shared" si="20"/>
         <v>520.83583333333331</v>
       </c>
-      <c r="H71" s="49">
+      <c r="H71" s="48">
         <f t="shared" si="20"/>
         <v>824.12333333333345</v>
       </c>
-      <c r="I71" s="49">
+      <c r="I71" s="48">
         <f t="shared" si="20"/>
         <v>1351.4683333333337</v>
       </c>
-      <c r="J71" s="49">
+      <c r="J71" s="48">
         <f t="shared" si="20"/>
         <v>1804.1275000000005</v>
       </c>
-      <c r="K71" s="49">
+      <c r="K71" s="48">
         <f t="shared" si="20"/>
         <v>1758.0433333333335</v>
       </c>
-      <c r="L71" s="49">
+      <c r="L71" s="48">
         <f t="shared" si="20"/>
         <v>1861.3308333333339</v>
       </c>
-      <c r="M71" s="49">
+      <c r="M71" s="48">
         <f t="shared" si="20"/>
         <v>2261.3888333333334</v>
       </c>
-      <c r="N71" s="49">
+      <c r="N71" s="48">
         <f t="shared" si="20"/>
         <v>2959.7748333333329</v>
       </c>
-      <c r="O71" s="50"/>
+      <c r="O71" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
